--- a/Data/Trait_data_and_sources.xlsx
+++ b/Data/Trait_data_and_sources.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="253">
   <si>
     <t>N</t>
   </si>
@@ -740,6 +740,48 @@
   </si>
   <si>
     <t>Total length of the larvae (mm)</t>
+  </si>
+  <si>
+    <t>Erythromma viridulum</t>
+  </si>
+  <si>
+    <t>Lestes barbarus</t>
+  </si>
+  <si>
+    <t>Aeshna affinis</t>
+  </si>
+  <si>
+    <t>Coenagrion scitulum</t>
+  </si>
+  <si>
+    <t>Lestes viridis</t>
+  </si>
+  <si>
+    <t>Willow Emerald Damselfly</t>
+  </si>
+  <si>
+    <t>Southern Emerald Damselfly</t>
+  </si>
+  <si>
+    <t>Small Red-eyed Damselfly</t>
+  </si>
+  <si>
+    <t>Southern Migrant Hawker</t>
+  </si>
+  <si>
+    <t>Norfolk Damselfly</t>
+  </si>
+  <si>
+    <t>End May</t>
+  </si>
+  <si>
+    <t>End September</t>
+  </si>
+  <si>
+    <t>Vagrant</t>
+  </si>
+  <si>
+    <t>Merritt, R., Moore, N. W. &amp; Eversham, B. C. (1996) Atlas of the dragonflies of Britain and Ireland. HMSO Great Britain.</t>
   </si>
 </sst>
 </file>
@@ -761,12 +803,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -781,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -815,6 +863,11 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,17 +1201,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR39"/>
+  <dimension ref="A1:BR44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN9" sqref="AN9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN2" sqref="AN2:AN44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="3" customWidth="1"/>
     <col min="5" max="7" width="8.85546875" style="3"/>
@@ -1177,7 +1230,8 @@
     <col min="23" max="23" width="9.140625" style="3"/>
     <col min="24" max="24" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="8.85546875" style="3"/>
-    <col min="27" max="28" width="14" style="3" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" style="3" customWidth="1"/>
+    <col min="28" max="28" width="14" style="3" customWidth="1"/>
     <col min="29" max="29" width="8.85546875" style="3"/>
     <col min="30" max="30" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -1190,9 +1244,9 @@
     <col min="40" max="41" width="15" style="3" customWidth="1"/>
     <col min="42" max="42" width="24" style="7" customWidth="1"/>
     <col min="43" max="43" width="18.140625" style="7" customWidth="1"/>
-    <col min="44" max="44" width="20.140625" style="7" customWidth="1"/>
-    <col min="45" max="45" width="17.42578125" style="7" customWidth="1"/>
-    <col min="46" max="46" width="18.7109375" style="7" customWidth="1"/>
+    <col min="44" max="44" width="32.5703125" style="7" customWidth="1"/>
+    <col min="45" max="45" width="21.5703125" style="7" customWidth="1"/>
+    <col min="46" max="46" width="26.28515625" style="7" customWidth="1"/>
     <col min="47" max="47" width="20" style="7" customWidth="1"/>
     <col min="48" max="48" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="9.140625" style="3"/>
@@ -1354,10 +1408,10 @@
     </row>
     <row r="2" spans="1:69">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -1366,55 +1420,56 @@
         <v>122</v>
       </c>
       <c r="E2" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="3">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>54</v>
-      </c>
-      <c r="J2" s="3">
-        <v>64</v>
-      </c>
-      <c r="K2" s="3">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3">
-        <v>34</v>
-      </c>
-      <c r="M2" s="3">
-        <v>39</v>
-      </c>
-      <c r="N2" s="3">
-        <v>11</v>
+        <f>AVERAGE(E2:F2)</f>
+        <v>46</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="1">
-        <v>1</v>
+      <c r="P2" s="3">
+        <v>2</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>209</v>
+        <v>10</v>
+      </c>
+      <c r="R2" s="3">
+        <v>3</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="U2" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V2" s="3">
         <v>1</v>
@@ -1426,34 +1481,34 @@
         <v>2</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z2" s="3">
         <v>1</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="AB2" s="3">
         <v>5</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="AD2" s="3">
         <v>7</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AH2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>42</v>
@@ -1461,29 +1516,28 @@
       <c r="AJ2" s="3">
         <v>3</v>
       </c>
-      <c r="AK2" s="3">
-        <v>3.5</v>
+      <c r="AK2" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="AO2" s="3">
-        <v>6</v>
-      </c>
-      <c r="AR2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="7">
+        <v>8</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="7">
         <v>1</v>
       </c>
       <c r="AV2" s="3">
-        <f t="shared" ref="AV2:AV39" si="0">SUM(AP2:AU2)</f>
         <v>2</v>
       </c>
       <c r="AW2" s="3">
@@ -1512,10 +1566,10 @@
     </row>
     <row r="3" spans="1:69">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -1524,37 +1578,37 @@
         <v>122</v>
       </c>
       <c r="E3" s="3">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G3" s="3">
-        <v>55.5</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J3" s="3">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K3" s="3">
         <v>8</v>
       </c>
       <c r="L3" s="3">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M3" s="3">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N3" s="3">
         <v>11</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -1562,17 +1616,17 @@
       <c r="Q3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="R3" s="3">
-        <v>1</v>
+      <c r="R3" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="U3" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V3" s="3">
         <v>1</v>
@@ -1590,13 +1644,13 @@
         <v>1</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AB3" s="3">
         <v>5</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="AD3" s="3">
         <v>7</v>
@@ -1608,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AH3" s="3">
         <v>3</v>
@@ -1620,32 +1674,29 @@
         <v>3</v>
       </c>
       <c r="AK3" s="3">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="AM3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="3">
         <v>6</v>
       </c>
-      <c r="AN3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>8</v>
-      </c>
-      <c r="AP3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="7">
+      <c r="AR3" s="7">
         <v>1</v>
       </c>
       <c r="AU3" s="7">
         <v>1</v>
       </c>
       <c r="AV3" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(AP3:AU3)</f>
+        <v>2</v>
       </c>
       <c r="AW3" s="3">
         <v>3</v>
@@ -1673,10 +1724,10 @@
     </row>
     <row r="4" spans="1:69">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -1685,37 +1736,37 @@
         <v>122</v>
       </c>
       <c r="E4" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3">
         <v>60</v>
       </c>
       <c r="G4" s="3">
-        <v>54.5</v>
+        <v>55.5</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J4" s="3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" s="3">
         <v>8</v>
       </c>
       <c r="L4" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N4" s="3">
         <v>11</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -1727,19 +1778,19 @@
         <v>1</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="U4" s="3">
+        <v>3</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
         <v>4</v>
-      </c>
-      <c r="V4" s="3">
-        <v>1</v>
-      </c>
-      <c r="W4" s="3">
-        <v>3</v>
       </c>
       <c r="X4" s="3">
         <v>2</v>
@@ -1769,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AH4" s="3">
         <v>3</v>
@@ -1781,29 +1832,23 @@
         <v>3</v>
       </c>
       <c r="AK4" s="3">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="AM4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN4" t="s">
         <v>1</v>
       </c>
       <c r="AO4" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AP4" s="7">
         <v>1</v>
       </c>
-      <c r="AR4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="7">
-        <v>1</v>
-      </c>
       <c r="AT4" s="7">
         <v>1</v>
       </c>
@@ -1811,8 +1856,8 @@
         <v>1</v>
       </c>
       <c r="AV4" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(AP4:AU4)</f>
+        <v>3</v>
       </c>
       <c r="AW4" s="3">
         <v>3</v>
@@ -1840,10 +1885,10 @@
     </row>
     <row r="5" spans="1:69">
       <c r="A5" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -1852,31 +1897,31 @@
         <v>122</v>
       </c>
       <c r="E5" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F5" s="3">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3">
-        <v>50.5</v>
+        <v>54.5</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J5" s="3">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K5" s="3">
         <v>8</v>
       </c>
       <c r="L5" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M5" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N5" s="3">
         <v>11</v>
@@ -1891,25 +1936,25 @@
         <v>179</v>
       </c>
       <c r="R5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="U5" s="3">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="V5" s="3">
         <v>1</v>
       </c>
       <c r="W5" s="3">
+        <v>3</v>
+      </c>
+      <c r="X5" s="3">
         <v>2</v>
-      </c>
-      <c r="X5" s="3">
-        <v>4</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>0</v>
@@ -1918,25 +1963,25 @@
         <v>1</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="AB5" s="3">
         <v>5</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="AD5" s="3">
         <v>7</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AF5" s="3">
         <v>3</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="AH5" s="3">
         <v>3</v>
@@ -1948,19 +1993,25 @@
         <v>3</v>
       </c>
       <c r="AK5" s="3">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="AM5" s="3">
-        <v>9</v>
-      </c>
-      <c r="AN5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="s">
         <v>1</v>
       </c>
       <c r="AO5" s="3">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>1</v>
       </c>
       <c r="AS5" s="7">
         <v>1</v>
@@ -1968,9 +2019,12 @@
       <c r="AT5" s="7">
         <v>1</v>
       </c>
+      <c r="AU5" s="7">
+        <v>1</v>
+      </c>
       <c r="AV5" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(AP5:AU5)</f>
+        <v>5</v>
       </c>
       <c r="AW5" s="3">
         <v>3</v>
@@ -1998,10 +2052,10 @@
     </row>
     <row r="6" spans="1:69">
       <c r="A6" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -2010,31 +2064,31 @@
         <v>122</v>
       </c>
       <c r="E6" s="3">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" s="3">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G6" s="3">
-        <v>54.5</v>
+        <v>50.5</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="3">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J6" s="3">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K6" s="3">
         <v>8</v>
       </c>
       <c r="L6" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M6" s="3">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N6" s="3">
         <v>11</v>
@@ -2046,55 +2100,55 @@
         <v>1</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="R6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="U6" s="3">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="V6" s="3">
         <v>1</v>
       </c>
       <c r="W6" s="3">
+        <v>2</v>
+      </c>
+      <c r="X6" s="3">
         <v>4</v>
       </c>
-      <c r="X6" s="3">
-        <v>1</v>
-      </c>
       <c r="Y6" s="3" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="3">
         <v>1</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="AB6" s="3">
         <v>5</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="AD6" s="3">
         <v>7</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="AF6" s="3">
         <v>3</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="AH6" s="3">
         <v>3</v>
@@ -2112,26 +2166,23 @@
         <v>35</v>
       </c>
       <c r="AM6" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" t="s">
         <v>1</v>
       </c>
       <c r="AO6" s="3">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="3">
+        <f>SUM(AP6:AU6)</f>
         <v>2</v>
-      </c>
-      <c r="AR6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
       <c r="AW6" s="3">
         <v>3</v>
@@ -2159,10 +2210,10 @@
     </row>
     <row r="7" spans="1:69">
       <c r="A7" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -2171,73 +2222,73 @@
         <v>122</v>
       </c>
       <c r="E7" s="3">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3">
-        <v>46</v>
+        <v>54.5</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7" s="3">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J7" s="3">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K7" s="3">
         <v>8</v>
       </c>
       <c r="L7" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M7" s="3">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N7" s="3">
         <v>11</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="R7" s="3">
         <v>1</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="U7" s="3">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="V7" s="3">
         <v>1</v>
       </c>
       <c r="W7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="Z7" s="3">
         <v>1</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB7" s="3">
         <v>5</v>
@@ -2249,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="AF7" s="3">
         <v>3</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="AH7" s="3">
         <v>3</v>
@@ -2267,24 +2318,21 @@
         <v>3</v>
       </c>
       <c r="AK7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="AM7" s="3">
         <v>6</v>
       </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AN7" t="s">
         <v>1</v>
       </c>
       <c r="AO7" s="3">
-        <v>5</v>
-      </c>
-      <c r="AP7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="7">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="7">
         <v>1</v>
       </c>
       <c r="AT7" s="7">
@@ -2294,8 +2342,8 @@
         <v>1</v>
       </c>
       <c r="AV7" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(AP7:AU7)</f>
+        <v>3</v>
       </c>
       <c r="AW7" s="3">
         <v>3</v>
@@ -2323,10 +2371,10 @@
     </row>
     <row r="8" spans="1:69">
       <c r="A8" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -2335,52 +2383,52 @@
         <v>122</v>
       </c>
       <c r="E8" s="3">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3">
         <v>49</v>
       </c>
-      <c r="F8" s="3">
-        <v>61</v>
-      </c>
       <c r="G8" s="3">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8" s="3">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J8" s="3">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="K8" s="3">
         <v>8</v>
       </c>
       <c r="L8" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M8" s="3">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N8" s="3">
         <v>11</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="R8" s="3">
         <v>1</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="U8" s="3">
         <v>2.5</v>
@@ -2389,16 +2437,16 @@
         <v>1</v>
       </c>
       <c r="W8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X8" s="3">
         <v>2</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>4</v>
@@ -2413,13 +2461,13 @@
         <v>7</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="AF8" s="3">
         <v>3</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AH8" s="3">
         <v>3</v>
@@ -2431,26 +2479,23 @@
         <v>3</v>
       </c>
       <c r="AK8" s="3">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="AM8" s="3">
         <v>6</v>
       </c>
-      <c r="AN8" s="3" t="s">
+      <c r="AN8" t="s">
         <v>1</v>
       </c>
       <c r="AO8" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP8" s="7">
         <v>1</v>
       </c>
-      <c r="AR8" s="7">
-        <v>1</v>
-      </c>
       <c r="AS8" s="7">
         <v>1</v>
       </c>
@@ -2461,8 +2506,8 @@
         <v>1</v>
       </c>
       <c r="AV8" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(AP8:AU8)</f>
+        <v>4</v>
       </c>
       <c r="AW8" s="3">
         <v>3</v>
@@ -2490,10 +2535,10 @@
     </row>
     <row r="9" spans="1:69">
       <c r="A9" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -2502,73 +2547,73 @@
         <v>122</v>
       </c>
       <c r="E9" s="3">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G9" s="3">
-        <v>41.5</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="J9" s="3">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="K9" s="3">
         <v>8</v>
       </c>
       <c r="L9" s="3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M9" s="3">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N9" s="3">
         <v>11</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="R9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="U9" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3">
         <v>2</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1</v>
-      </c>
-      <c r="W9" s="3">
-        <v>2</v>
-      </c>
-      <c r="X9" s="3">
-        <v>3</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="AB9" s="3">
         <v>5</v>
@@ -2598,35 +2643,38 @@
         <v>3</v>
       </c>
       <c r="AK9" s="3">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AM9" s="3">
         <v>6</v>
       </c>
-      <c r="AN9" s="3" t="s">
+      <c r="AN9" t="s">
         <v>1</v>
       </c>
       <c r="AO9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="3">
+        <f>SUM(AP9:AU9)</f>
         <v>5</v>
-      </c>
-      <c r="AP9" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR9" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
       </c>
       <c r="AW9" s="3">
         <v>3</v>
@@ -2654,67 +2702,67 @@
     </row>
     <row r="10" spans="1:69">
       <c r="A10" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="3">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3">
         <v>46</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="3">
-        <v>33</v>
-      </c>
-      <c r="F10" s="3">
-        <v>40</v>
-      </c>
       <c r="G10" s="3">
-        <v>36.5</v>
+        <v>41.5</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J10" s="3">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="K10" s="3">
         <v>8</v>
       </c>
       <c r="L10" s="3">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M10" s="3">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N10" s="3">
+        <v>11</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="R10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="U10" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V10" s="3">
         <v>1</v>
@@ -2723,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="X10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>0</v>
@@ -2732,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="AB10" s="3">
         <v>5</v>
@@ -2744,7 +2792,7 @@
         <v>7</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="AF10" s="3">
         <v>3</v>
@@ -2762,26 +2810,35 @@
         <v>3</v>
       </c>
       <c r="AK10" s="3">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AM10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="3" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>1</v>
       </c>
       <c r="AO10" s="3">
+        <v>5</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="3">
+        <f>SUM(AP10:AU10)</f>
         <v>4</v>
-      </c>
-      <c r="AP10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
       <c r="AW10" s="3">
         <v>3</v>
@@ -2809,10 +2866,10 @@
     </row>
     <row r="11" spans="1:69">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>46</v>
@@ -2836,16 +2893,16 @@
         <v>45</v>
       </c>
       <c r="J11" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="3">
         <v>8</v>
       </c>
       <c r="L11" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M11" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N11" s="3">
         <v>10</v>
@@ -2863,13 +2920,13 @@
         <v>1</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>87</v>
       </c>
       <c r="U11" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V11" s="3">
         <v>1</v>
@@ -2878,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="X11" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>0</v>
@@ -2899,13 +2956,13 @@
         <v>7</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="AF11" s="3">
         <v>3</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AH11" s="3">
         <v>3</v>
@@ -2923,19 +2980,19 @@
         <v>35</v>
       </c>
       <c r="AM11" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="s">
         <v>49</v>
       </c>
       <c r="AO11" s="3">
         <v>4</v>
       </c>
-      <c r="AQ11" s="7">
+      <c r="AP11" s="7">
         <v>1</v>
       </c>
       <c r="AV11" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(AP11:AU11)</f>
         <v>1</v>
       </c>
       <c r="AW11" s="3">
@@ -2964,43 +3021,43 @@
     </row>
     <row r="12" spans="1:69">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="3">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
         <v>45</v>
       </c>
-      <c r="E12" s="3">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3">
-        <v>27</v>
-      </c>
-      <c r="G12" s="3">
-        <v>24.5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>25</v>
-      </c>
       <c r="J12" s="3">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K12" s="3">
         <v>8</v>
       </c>
       <c r="L12" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M12" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N12" s="3">
         <v>10</v>
@@ -3018,22 +3075,22 @@
         <v>1</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U12" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V12" s="3">
         <v>1</v>
       </c>
       <c r="W12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>0</v>
@@ -3042,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AB12" s="3">
         <v>5</v>
@@ -3054,13 +3111,13 @@
         <v>7</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="AF12" s="3">
         <v>3</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AH12" s="3">
         <v>3</v>
@@ -3078,19 +3135,19 @@
         <v>35</v>
       </c>
       <c r="AM12" s="3">
-        <v>10</v>
-      </c>
-      <c r="AN12" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>49</v>
       </c>
       <c r="AO12" s="3">
-        <v>10</v>
-      </c>
-      <c r="AR12" s="7">
+        <v>4</v>
+      </c>
+      <c r="AQ12" s="7">
         <v>1</v>
       </c>
       <c r="AV12" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(AP12:AU12)</f>
         <v>1</v>
       </c>
       <c r="AW12" s="3">
@@ -3119,10 +3176,10 @@
     </row>
     <row r="13" spans="1:69">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>46</v>
@@ -3134,28 +3191,28 @@
         <v>22</v>
       </c>
       <c r="F13" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="3">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J13" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K13" s="3">
         <v>8</v>
       </c>
       <c r="L13" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M13" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N13" s="3">
         <v>10</v>
@@ -3173,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="U13" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V13" s="3">
         <v>1</v>
@@ -3188,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="X13" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>0</v>
@@ -3197,13 +3254,13 @@
         <v>1</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="AB13" s="3">
         <v>5</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="AD13" s="3">
         <v>7</v>
@@ -3215,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AH13" s="3">
         <v>3</v>
@@ -3227,29 +3284,26 @@
         <v>3</v>
       </c>
       <c r="AK13" s="3">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AM13" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN13" t="s">
         <v>1</v>
       </c>
       <c r="AO13" s="3">
-        <v>9</v>
-      </c>
-      <c r="AT13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="7">
+        <v>10</v>
+      </c>
+      <c r="AR13" s="7">
         <v>1</v>
       </c>
       <c r="AV13" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(AP13:AU13)</f>
+        <v>1</v>
       </c>
       <c r="AW13" s="3">
         <v>3</v>
@@ -3277,10 +3331,10 @@
     </row>
     <row r="14" spans="1:69">
       <c r="A14" s="3" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>46</v>
@@ -3301,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14" s="3">
         <v>33</v>
@@ -3310,31 +3364,31 @@
         <v>8</v>
       </c>
       <c r="L14" s="3">
+        <v>14</v>
+      </c>
+      <c r="M14" s="3">
         <v>15</v>
       </c>
-      <c r="M14" s="3">
-        <v>18</v>
-      </c>
       <c r="N14" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>145</v>
+        <v>31</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="U14" s="3">
         <v>2.5</v>
@@ -3346,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="X14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>0</v>
@@ -3355,25 +3409,25 @@
         <v>1</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="AB14" s="3">
         <v>5</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="AD14" s="3">
         <v>7</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="AF14" s="3">
         <v>3</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="AH14" s="3">
         <v>3</v>
@@ -3384,23 +3438,20 @@
       <c r="AJ14" s="3">
         <v>3</v>
       </c>
-      <c r="AK14" s="3" t="s">
-        <v>145</v>
+      <c r="AK14" s="3">
+        <v>1.4</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN14" t="s">
         <v>1</v>
       </c>
       <c r="AO14" s="3">
-        <v>4</v>
-      </c>
-      <c r="AR14" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AT14" s="7">
         <v>1</v>
@@ -3409,8 +3460,8 @@
         <v>1</v>
       </c>
       <c r="AV14" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(AP14:AU14)</f>
+        <v>2</v>
       </c>
       <c r="AW14" s="3">
         <v>3</v>
@@ -3422,10 +3473,10 @@
     </row>
     <row r="15" spans="1:69">
       <c r="A15" s="3" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>46</v>
@@ -3446,40 +3497,40 @@
         <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K15" s="3">
         <v>8</v>
       </c>
       <c r="L15" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M15" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N15" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" s="3">
-        <v>6</v>
+        <v>145</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="U15" s="3">
         <v>2.5</v>
@@ -3488,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="W15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>0</v>
@@ -3506,19 +3557,19 @@
         <v>5</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AD15" s="3">
         <v>7</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="AF15" s="3">
         <v>3</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="AH15" s="3">
         <v>3</v>
@@ -3529,30 +3580,33 @@
       <c r="AJ15" s="3">
         <v>3</v>
       </c>
-      <c r="AK15" s="3">
-        <v>2</v>
+      <c r="AK15" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AL15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN15" s="3" t="s">
-        <v>49</v>
+        <v>145</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>1</v>
       </c>
       <c r="AO15" s="3">
-        <v>5</v>
-      </c>
-      <c r="AQ15" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR15" s="7">
         <v>1</v>
       </c>
+      <c r="AT15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>1</v>
+      </c>
       <c r="AV15" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(AP15:AU15)</f>
+        <v>3</v>
       </c>
       <c r="AW15" s="3">
         <v>3</v>
@@ -3580,10 +3634,10 @@
     </row>
     <row r="16" spans="1:69">
       <c r="A16" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>46</v>
@@ -3592,31 +3646,31 @@
         <v>45</v>
       </c>
       <c r="E16" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G16" s="3">
-        <v>26.5</v>
+        <v>24</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J16" s="3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K16" s="3">
         <v>8</v>
       </c>
       <c r="L16" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N16" s="3">
         <v>10</v>
@@ -3625,22 +3679,22 @@
         <v>31</v>
       </c>
       <c r="P16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>145</v>
+        <v>31</v>
+      </c>
+      <c r="R16" s="3">
+        <v>6</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U16" s="3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V16" s="3">
         <v>1</v>
@@ -3649,7 +3703,7 @@
         <v>2</v>
       </c>
       <c r="X16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="3" t="s">
         <v>0</v>
@@ -3658,13 +3712,13 @@
         <v>1</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AB16" s="3">
         <v>5</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="AD16" s="3">
         <v>7</v>
@@ -3688,35 +3742,29 @@
         <v>3</v>
       </c>
       <c r="AK16" s="3">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AL16" s="3" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AM16" s="3">
         <v>6</v>
       </c>
-      <c r="AN16" s="3" t="s">
-        <v>1</v>
+      <c r="AN16" t="s">
+        <v>49</v>
       </c>
       <c r="AO16" s="3">
         <v>5</v>
       </c>
-      <c r="AP16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="7">
+      <c r="AQ16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="7">
         <v>1</v>
       </c>
       <c r="AV16" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(AP16:AU16)</f>
+        <v>2</v>
       </c>
       <c r="AW16" s="3">
         <v>3</v>
@@ -3744,10 +3792,10 @@
     </row>
     <row r="17" spans="1:69">
       <c r="A17" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>46</v>
@@ -3768,43 +3816,43 @@
         <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" s="3">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K17" s="3">
         <v>8</v>
       </c>
       <c r="L17" s="3">
+        <v>12</v>
+      </c>
+      <c r="M17" s="3">
         <v>13</v>
-      </c>
-      <c r="M17" s="3">
-        <v>14</v>
       </c>
       <c r="N17" s="3">
         <v>10</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>145</v>
+        <v>3</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="U17" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V17" s="3">
         <v>1</v>
@@ -3813,7 +3861,7 @@
         <v>2</v>
       </c>
       <c r="X17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>0</v>
@@ -3822,13 +3870,13 @@
         <v>1</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="AB17" s="3">
         <v>5</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="AD17" s="3">
         <v>7</v>
@@ -3852,32 +3900,35 @@
         <v>3</v>
       </c>
       <c r="AK17" s="3">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="AM17" s="3">
         <v>6</v>
       </c>
-      <c r="AN17" s="3" t="s">
+      <c r="AN17" t="s">
         <v>1</v>
       </c>
       <c r="AO17" s="3">
+        <v>5</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="3">
+        <f>SUM(AP17:AU17)</f>
         <v>4</v>
-      </c>
-      <c r="AP17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
       <c r="AW17" s="3">
         <v>3</v>
@@ -3905,76 +3956,76 @@
     </row>
     <row r="18" spans="1:69">
       <c r="A18" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="E18" s="3">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F18" s="3">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="G18" s="3">
-        <v>59</v>
+        <v>26.5</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="J18" s="3">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K18" s="3">
         <v>8</v>
       </c>
       <c r="L18" s="3">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M18" s="3">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N18" s="3">
+        <v>10</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>145</v>
+      <c r="R18" s="3">
+        <v>1</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="U18" s="3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V18" s="3">
         <v>1</v>
       </c>
       <c r="W18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>0</v>
@@ -3983,25 +4034,25 @@
         <v>1</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="AB18" s="3">
         <v>5</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="AD18" s="3">
         <v>7</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="AF18" s="3">
         <v>3</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AH18" s="3">
         <v>3</v>
@@ -4013,31 +4064,31 @@
         <v>3</v>
       </c>
       <c r="AK18" s="3">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="3" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="AM18" s="3">
         <v>6</v>
       </c>
-      <c r="AN18" s="3" t="s">
-        <v>49</v>
+      <c r="AN18" t="s">
+        <v>1</v>
       </c>
       <c r="AO18" s="3">
-        <v>5</v>
-      </c>
-      <c r="AQ18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="7">
+        <v>4</v>
+      </c>
+      <c r="AP18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="7">
         <v>1</v>
       </c>
       <c r="AV18" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(AP18:AU18)</f>
         <v>3</v>
       </c>
       <c r="AW18" s="3">
@@ -4066,64 +4117,65 @@
     </row>
     <row r="19" spans="1:69">
       <c r="A19" s="3" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F19" s="3">
+        <v>26</v>
+      </c>
+      <c r="G19" s="3">
+        <f>AVERAGE(E19:F19)</f>
+        <v>24</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="S19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="3">
-        <v>36</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>47</v>
-      </c>
-      <c r="J19" s="3">
-        <v>55</v>
-      </c>
-      <c r="K19" s="3">
-        <v>8</v>
-      </c>
-      <c r="L19" s="3">
-        <v>22</v>
-      </c>
-      <c r="M19" s="3">
-        <v>25</v>
-      </c>
-      <c r="N19" s="3">
-        <v>11</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" s="3">
-        <v>6</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="T19" s="3" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="U19" s="3">
         <v>2</v>
@@ -4132,10 +4184,10 @@
         <v>1</v>
       </c>
       <c r="W19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y19" s="3" t="s">
         <v>0</v>
@@ -4144,61 +4196,57 @@
         <v>1</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AB19" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF19" s="3">
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AH19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AJ19" s="3">
         <v>3</v>
       </c>
       <c r="AK19" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="AL19" s="3" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>1</v>
       </c>
       <c r="AM19" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="s">
         <v>1</v>
       </c>
       <c r="AO19" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR19" s="7">
+        <v>9</v>
+      </c>
+      <c r="AQ19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="7">
         <v>1</v>
       </c>
       <c r="AT19" s="7">
         <v>1</v>
       </c>
-      <c r="AU19" s="7">
-        <v>1</v>
-      </c>
       <c r="AV19" s="3">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AW19" s="3">
@@ -4227,64 +4275,64 @@
     </row>
     <row r="20" spans="1:69">
       <c r="A20" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E20" s="3">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F20" s="3">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G20" s="3">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
       <c r="I20" s="3">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="J20" s="3">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="K20" s="3">
         <v>8</v>
       </c>
       <c r="L20" s="3">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M20" s="3">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N20" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>145</v>
+      <c r="Q20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U20" s="3">
         <v>3.5</v>
@@ -4293,10 +4341,10 @@
         <v>1</v>
       </c>
       <c r="W20" s="3">
+        <v>3</v>
+      </c>
+      <c r="X20" s="3">
         <v>2</v>
-      </c>
-      <c r="X20" s="3">
-        <v>3</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>0</v>
@@ -4305,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB20" s="3">
         <v>5</v>
@@ -4317,13 +4365,13 @@
         <v>7</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="AF20" s="3">
         <v>3</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="AH20" s="3">
         <v>3</v>
@@ -4335,38 +4383,32 @@
         <v>3</v>
       </c>
       <c r="AK20" s="3">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AM20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>49</v>
       </c>
       <c r="AO20" s="3">
-        <v>6</v>
-      </c>
-      <c r="AP20" s="7">
+        <v>5</v>
+      </c>
+      <c r="AQ20" s="7">
         <v>1</v>
       </c>
       <c r="AR20" s="7">
         <v>1</v>
       </c>
-      <c r="AS20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="7">
-        <v>1</v>
-      </c>
       <c r="AU20" s="7">
         <v>1</v>
       </c>
       <c r="AV20" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(AP20:AU20)</f>
+        <v>3</v>
       </c>
       <c r="AW20" s="3">
         <v>3</v>
@@ -4394,46 +4436,46 @@
     </row>
     <row r="21" spans="1:69">
       <c r="A21" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E21" s="3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F21" s="3">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G21" s="3">
-        <v>27.5</v>
+        <v>36</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
       </c>
       <c r="I21" s="3">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J21" s="3">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="K21" s="3">
         <v>8</v>
       </c>
       <c r="L21" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M21" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>31</v>
@@ -4451,10 +4493,10 @@
         <v>44</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="U21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21" s="3">
         <v>1</v>
@@ -4472,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AB21" s="3">
         <v>5</v>
@@ -4490,36 +4532,33 @@
         <v>3</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AH21" s="3">
         <v>3</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AJ21" s="3">
         <v>3</v>
       </c>
       <c r="AK21" s="3">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AM21" s="3">
         <v>6</v>
       </c>
-      <c r="AN21" s="3" t="s">
+      <c r="AN21" t="s">
         <v>1</v>
       </c>
       <c r="AO21" s="3">
         <v>5</v>
       </c>
-      <c r="AP21" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS21" s="7">
+      <c r="AR21" s="7">
         <v>1</v>
       </c>
       <c r="AT21" s="7">
@@ -4529,8 +4568,8 @@
         <v>1</v>
       </c>
       <c r="AV21" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(AP21:AU21)</f>
+        <v>3</v>
       </c>
       <c r="AW21" s="3">
         <v>3</v>
@@ -4558,76 +4597,76 @@
     </row>
     <row r="22" spans="1:69">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E22" s="3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F22" s="3">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G22" s="3">
-        <v>34.5</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
       <c r="I22" s="3">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="J22" s="3">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K22" s="3">
         <v>8</v>
       </c>
       <c r="L22" s="3">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M22" s="3">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N22" s="3">
+        <v>10</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="R22" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="U22" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1</v>
+      </c>
+      <c r="W22" s="3">
         <v>2</v>
       </c>
-      <c r="V22" s="3">
-        <v>1</v>
-      </c>
-      <c r="W22" s="3">
-        <v>3</v>
-      </c>
       <c r="X22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>0</v>
@@ -4636,59 +4675,68 @@
         <v>1</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AB22" s="3">
         <v>5</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="AD22" s="3">
         <v>7</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="AF22" s="3">
         <v>3</v>
       </c>
       <c r="AG22" s="3" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="AH22" s="3">
         <v>3</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AJ22" s="3">
         <v>3</v>
       </c>
       <c r="AK22" s="3">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="AL22" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AM22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="3">
         <v>6</v>
       </c>
-      <c r="AN22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO22" s="3">
+      <c r="AP22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="3">
+        <f>SUM(AP22:AU22)</f>
         <v>5</v>
-      </c>
-      <c r="AP22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV22" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
       </c>
       <c r="AW22" s="3">
         <v>3</v>
@@ -4716,10 +4764,10 @@
     </row>
     <row r="23" spans="1:69">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>46</v>
@@ -4728,13 +4776,13 @@
         <v>45</v>
       </c>
       <c r="E23" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F23" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" s="3">
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -4743,40 +4791,40 @@
         <v>30</v>
       </c>
       <c r="J23" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" s="3">
         <v>8</v>
       </c>
       <c r="L23" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M23" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P23" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>145</v>
+        <v>31</v>
+      </c>
+      <c r="R23" s="3">
+        <v>6</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="U23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V23" s="3">
         <v>1</v>
@@ -4785,7 +4833,7 @@
         <v>3</v>
       </c>
       <c r="X23" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>0</v>
@@ -4794,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="AB23" s="3">
         <v>5</v>
@@ -4806,13 +4854,13 @@
         <v>7</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="AF23" s="3">
         <v>3</v>
       </c>
       <c r="AG23" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AH23" s="3">
         <v>3</v>
@@ -4824,15 +4872,15 @@
         <v>3</v>
       </c>
       <c r="AK23" s="3">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AL23" s="3" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AM23" s="3">
         <v>6</v>
       </c>
-      <c r="AN23" s="3" t="s">
+      <c r="AN23" t="s">
         <v>1</v>
       </c>
       <c r="AO23" s="3">
@@ -4841,9 +4889,6 @@
       <c r="AP23" s="7">
         <v>1</v>
       </c>
-      <c r="AR23" s="7">
-        <v>1</v>
-      </c>
       <c r="AS23" s="7">
         <v>1</v>
       </c>
@@ -4854,8 +4899,8 @@
         <v>1</v>
       </c>
       <c r="AV23" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(AP23:AU23)</f>
+        <v>4</v>
       </c>
       <c r="AW23" s="3">
         <v>3</v>
@@ -4883,10 +4928,10 @@
     </row>
     <row r="24" spans="1:69">
       <c r="A24" s="3" t="s">
-        <v>86</v>
+        <v>239</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>46</v>
@@ -4895,64 +4940,65 @@
         <v>45</v>
       </c>
       <c r="E24" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="3">
         <v>25</v>
       </c>
       <c r="G24" s="3">
-        <v>23</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>26</v>
-      </c>
-      <c r="J24" s="3">
+        <f>AVERAGE(E24:F24)</f>
+        <v>23.5</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="3">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
-        <v>11</v>
-      </c>
-      <c r="M24" s="3">
-        <v>12</v>
-      </c>
-      <c r="N24" s="3">
-        <v>10</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1</v>
+      <c r="P24" s="3">
+        <v>2</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="3">
-        <v>6</v>
+        <v>145</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>84</v>
       </c>
       <c r="U24" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>0</v>
@@ -4961,25 +5007,22 @@
         <v>1</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>5</v>
+        <v>145</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AG24" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AH24" s="3">
         <v>3</v>
@@ -4990,33 +5033,35 @@
       <c r="AJ24" s="3">
         <v>3</v>
       </c>
-      <c r="AK24" s="3">
-        <v>1.4</v>
+      <c r="AK24" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AL24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM24" s="3">
+        <v>145</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="3">
         <v>6</v>
       </c>
-      <c r="AN24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="3">
-        <v>5</v>
-      </c>
       <c r="AR24" s="7">
         <v>1</v>
       </c>
       <c r="AS24" s="7">
         <v>1</v>
       </c>
+      <c r="AT24" s="7">
+        <v>1</v>
+      </c>
       <c r="AV24" s="3">
-        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AW24" s="3">
         <v>2</v>
-      </c>
-      <c r="AW24" s="3">
-        <v>3</v>
       </c>
       <c r="AX24" s="11"/>
       <c r="AY24" s="11"/>
@@ -5041,64 +5086,64 @@
     </row>
     <row r="25" spans="1:69">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E25" s="3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F25" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G25" s="3">
-        <v>29</v>
+        <v>34.5</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
       </c>
       <c r="I25" s="3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J25" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K25" s="3">
         <v>8</v>
       </c>
       <c r="L25" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M25" s="3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N25" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P25" s="1">
         <v>1</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="R25" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="U25" s="3">
         <v>2</v>
@@ -5107,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="W25" s="3">
+        <v>3</v>
+      </c>
+      <c r="X25" s="3">
         <v>2</v>
-      </c>
-      <c r="X25" s="3">
-        <v>5</v>
       </c>
       <c r="Y25" s="3" t="s">
         <v>0</v>
@@ -5131,46 +5176,46 @@
         <v>7</v>
       </c>
       <c r="AE25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO25" s="3">
         <v>5</v>
       </c>
-      <c r="AF25" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ25" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM25" s="3">
-        <v>9</v>
-      </c>
-      <c r="AN25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="3">
-        <v>9</v>
-      </c>
-      <c r="AS25" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT25" s="7">
+      <c r="AP25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="7">
         <v>1</v>
       </c>
       <c r="AV25" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(AP25:AU25)</f>
         <v>2</v>
       </c>
       <c r="AW25" s="3">
@@ -5199,79 +5244,79 @@
     </row>
     <row r="26" spans="1:69">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E26" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F26" s="3">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G26" s="3">
-        <v>29</v>
+        <v>25.5</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J26" s="3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K26" s="3">
         <v>8</v>
       </c>
       <c r="L26" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M26" s="3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N26" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P26" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="R26" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="U26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V26" s="3">
         <v>1</v>
       </c>
       <c r="W26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X26" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
         <v>1</v>
@@ -5289,7 +5334,7 @@
         <v>7</v>
       </c>
       <c r="AE26" s="3" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="AF26" s="3">
         <v>3</v>
@@ -5307,19 +5352,19 @@
         <v>3</v>
       </c>
       <c r="AK26" s="3">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AL26" s="3" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="AM26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN26" t="s">
         <v>1</v>
       </c>
       <c r="AO26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP26" s="7">
         <v>1</v>
@@ -5337,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="AV26" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(AP26:AU26)</f>
         <v>5</v>
       </c>
       <c r="AW26" s="3">
@@ -5366,49 +5411,49 @@
     </row>
     <row r="27" spans="1:69">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E27" s="3">
         <v>21</v>
       </c>
       <c r="F27" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G27" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
       </c>
       <c r="I27" s="3">
+        <v>26</v>
+      </c>
+      <c r="J27" s="3">
         <v>31</v>
-      </c>
-      <c r="J27" s="3">
-        <v>36</v>
       </c>
       <c r="K27" s="3">
         <v>8</v>
       </c>
       <c r="L27" s="3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M27" s="3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N27" s="3">
+        <v>10</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="P27" s="1">
         <v>1</v>
@@ -5417,22 +5462,22 @@
         <v>31</v>
       </c>
       <c r="R27" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="U27" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V27" s="3">
         <v>1</v>
       </c>
       <c r="W27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X27" s="3">
         <v>1</v>
@@ -5444,56 +5489,59 @@
         <v>1</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AB27" s="3">
         <v>5</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="AD27" s="3">
         <v>7</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="AF27" s="3">
         <v>3</v>
       </c>
       <c r="AG27" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AH27" s="3">
         <v>3</v>
       </c>
       <c r="AI27" s="3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AJ27" s="3">
         <v>3</v>
       </c>
       <c r="AK27" s="3">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AL27" s="3" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="AM27" s="3">
         <v>6</v>
       </c>
-      <c r="AN27" s="3" t="s">
+      <c r="AN27" t="s">
         <v>1</v>
       </c>
       <c r="AO27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR27" s="7">
         <v>1</v>
       </c>
+      <c r="AS27" s="7">
+        <v>1</v>
+      </c>
       <c r="AV27" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(AP27:AU27)</f>
+        <v>2</v>
       </c>
       <c r="AW27" s="3">
         <v>3</v>
@@ -5521,88 +5569,89 @@
     </row>
     <row r="28" spans="1:69">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E28" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F28" s="3">
-        <v>28</v>
-      </c>
-      <c r="G28" s="3">
-        <v>25</v>
-      </c>
-      <c r="H28" s="1">
+        <v>35</v>
+      </c>
+      <c r="G28" s="4">
+        <f>AVERAGE(E28:F28)</f>
+        <v>30.5</v>
+      </c>
+      <c r="H28" s="4">
         <v>1</v>
       </c>
       <c r="I28" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J28" s="3">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K28" s="3">
         <v>8</v>
       </c>
       <c r="L28" s="3">
-        <v>22.5</v>
+        <v>17</v>
       </c>
       <c r="M28" s="3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N28" s="3">
+        <v>10</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>1</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="R28" s="3">
         <v>1</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="U28" s="3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="V28" s="3">
-        <v>1</v>
-      </c>
-      <c r="W28" s="3">
-        <v>3</v>
-      </c>
-      <c r="X28" s="3">
         <v>2</v>
       </c>
+      <c r="W28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="Y28" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z28" s="3">
         <v>1</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="AB28" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AC28" s="3" t="s">
         <v>6</v>
@@ -5611,50 +5660,46 @@
         <v>7</v>
       </c>
       <c r="AE28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AG28" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AH28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AJ28" s="3">
         <v>3</v>
       </c>
       <c r="AK28" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="AL28" s="3" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>1</v>
       </c>
       <c r="AM28" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="s">
         <v>1</v>
       </c>
       <c r="AO28" s="3">
-        <v>4</v>
-      </c>
-      <c r="AS28" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT28" s="7">
+        <v>5</v>
+      </c>
+      <c r="AR28" s="7">
         <v>1</v>
       </c>
       <c r="AV28" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="11"/>
       <c r="AY28" s="11"/>
@@ -5679,64 +5724,64 @@
     </row>
     <row r="29" spans="1:69">
       <c r="A29" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E29" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="3">
+        <v>33</v>
+      </c>
+      <c r="G29" s="3">
         <v>29</v>
       </c>
-      <c r="G29" s="3">
-        <v>27.5</v>
-      </c>
       <c r="H29" s="1">
         <v>1</v>
       </c>
       <c r="I29" s="3">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J29" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K29" s="3">
         <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>17</v>
+      </c>
+      <c r="M29" s="3">
         <v>22</v>
       </c>
-      <c r="M29" s="3">
-        <v>25</v>
-      </c>
       <c r="N29" s="3">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="P29" s="1">
         <v>1</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="R29" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="U29" s="3">
         <v>2</v>
@@ -5745,10 +5790,10 @@
         <v>1</v>
       </c>
       <c r="W29" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X29" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>0</v>
@@ -5769,46 +5814,46 @@
         <v>7</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="AF29" s="3">
         <v>3</v>
       </c>
       <c r="AG29" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AH29" s="3">
         <v>3</v>
       </c>
       <c r="AI29" s="3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AJ29" s="3">
         <v>3</v>
       </c>
       <c r="AK29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL29" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AM29" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN29" t="s">
         <v>1</v>
       </c>
       <c r="AO29" s="3">
-        <v>5</v>
-      </c>
-      <c r="AP29" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AS29" s="7">
         <v>1</v>
       </c>
+      <c r="AT29" s="7">
+        <v>1</v>
+      </c>
       <c r="AV29" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(AP29:AU29)</f>
         <v>2</v>
       </c>
       <c r="AW29" s="3">
@@ -5837,79 +5882,79 @@
     </row>
     <row r="30" spans="1:69">
       <c r="A30" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E30" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" s="3">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
       </c>
       <c r="I30" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J30" s="3">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K30" s="3">
         <v>8</v>
       </c>
       <c r="L30" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M30" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N30" s="3">
+        <v>10</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="R30" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="U30" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V30" s="3">
         <v>1</v>
       </c>
       <c r="W30" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X30" s="3">
         <v>1</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="Z30" s="3">
         <v>1</v>
@@ -5927,7 +5972,7 @@
         <v>7</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="AF30" s="3">
         <v>3</v>
@@ -5939,41 +5984,44 @@
         <v>3</v>
       </c>
       <c r="AI30" s="3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AJ30" s="3">
         <v>3</v>
       </c>
       <c r="AK30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AL30" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AM30" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="s">
         <v>1</v>
       </c>
       <c r="AO30" s="3">
+        <v>4</v>
+      </c>
+      <c r="AP30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="3">
+        <f>SUM(AP30:AU30)</f>
         <v>5</v>
-      </c>
-      <c r="AP30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV30" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
       </c>
       <c r="AW30" s="3">
         <v>3</v>
@@ -6000,124 +6048,122 @@
       <c r="BQ30" s="9"/>
     </row>
     <row r="31" spans="1:69">
-      <c r="A31" s="3" t="s">
-        <v>64</v>
+      <c r="A31" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E31" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" s="3">
+        <v>40</v>
+      </c>
+      <c r="G31" s="3">
+        <f>AVERAGE(E31:F31)</f>
         <v>35</v>
       </c>
-      <c r="G31" s="3">
-        <v>32</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="H31" s="4">
         <v>1</v>
       </c>
       <c r="I31" s="3">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J31" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K31" s="3">
         <v>8</v>
       </c>
       <c r="L31" s="3">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M31" s="3">
-        <v>25.5</v>
+        <v>19</v>
       </c>
       <c r="N31" s="3">
+        <v>10</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>1</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="R31" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="U31" s="3">
+        <v>5</v>
+      </c>
+      <c r="V31" s="3">
+        <v>1</v>
+      </c>
+      <c r="W31" s="3">
+        <v>3</v>
+      </c>
+      <c r="X31" s="3">
         <v>2</v>
       </c>
-      <c r="V31" s="3">
-        <v>1</v>
-      </c>
-      <c r="W31" s="3">
-        <v>3</v>
-      </c>
-      <c r="X31" s="3">
-        <v>1</v>
-      </c>
       <c r="Y31" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z31" s="3">
         <v>1</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="AB31" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD31" s="3">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF31" s="3">
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AG31" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AH31" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AJ31" s="3">
         <v>3</v>
       </c>
       <c r="AK31" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL31" s="3" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>1</v>
       </c>
       <c r="AM31" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="s">
         <v>1</v>
       </c>
       <c r="AO31" s="3">
@@ -6126,15 +6172,11 @@
       <c r="AP31" s="7">
         <v>1</v>
       </c>
-      <c r="AS31" s="7">
-        <v>1</v>
-      </c>
       <c r="AT31" s="7">
         <v>1</v>
       </c>
       <c r="AV31" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW31" s="3">
         <v>3</v>
@@ -6162,10 +6204,10 @@
     </row>
     <row r="32" spans="1:69">
       <c r="A32" s="3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
@@ -6174,31 +6216,31 @@
         <v>12</v>
       </c>
       <c r="E32" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F32" s="3">
+        <v>27</v>
+      </c>
+      <c r="G32" s="3">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
         <v>31</v>
       </c>
-      <c r="G32" s="3">
-        <v>28</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>36</v>
-      </c>
-      <c r="J32" s="3">
-        <v>45</v>
       </c>
       <c r="K32" s="3">
         <v>8</v>
       </c>
       <c r="L32" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M32" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N32" s="3">
         <v>11</v>
@@ -6213,22 +6255,22 @@
         <v>31</v>
       </c>
       <c r="R32" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U32" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V32" s="3">
         <v>1</v>
       </c>
       <c r="W32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X32" s="3">
         <v>1</v>
@@ -6240,13 +6282,13 @@
         <v>1</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="AB32" s="3">
         <v>5</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="AD32" s="3">
         <v>7</v>
@@ -6258,7 +6300,7 @@
         <v>3</v>
       </c>
       <c r="AG32" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AH32" s="3">
         <v>3</v>
@@ -6278,21 +6320,18 @@
       <c r="AM32" s="3">
         <v>6</v>
       </c>
-      <c r="AN32" s="3" t="s">
-        <v>49</v>
+      <c r="AN32" t="s">
+        <v>1</v>
       </c>
       <c r="AO32" s="3">
-        <v>5</v>
-      </c>
-      <c r="AQ32" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR32" s="7">
         <v>1</v>
       </c>
       <c r="AV32" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(AP32:AU32)</f>
+        <v>1</v>
       </c>
       <c r="AW32" s="3">
         <v>3</v>
@@ -6320,64 +6359,64 @@
     </row>
     <row r="33" spans="1:69">
       <c r="A33" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E33" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F33" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G33" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H33" s="1">
         <v>1</v>
       </c>
       <c r="I33" s="3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J33" s="3">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K33" s="3">
         <v>8</v>
       </c>
       <c r="L33" s="3">
-        <v>13</v>
+        <v>22.5</v>
       </c>
       <c r="M33" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N33" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="R33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="U33" s="3">
         <v>2.5</v>
@@ -6386,10 +6425,10 @@
         <v>1</v>
       </c>
       <c r="W33" s="3">
+        <v>3</v>
+      </c>
+      <c r="X33" s="3">
         <v>2</v>
-      </c>
-      <c r="X33" s="3">
-        <v>4</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>0</v>
@@ -6398,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AB33" s="3">
         <v>5</v>
@@ -6410,7 +6449,7 @@
         <v>7</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="AF33" s="3">
         <v>3</v>
@@ -6422,34 +6461,34 @@
         <v>3</v>
       </c>
       <c r="AI33" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AJ33" s="3">
         <v>3</v>
       </c>
       <c r="AK33" s="3">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AL33" s="3" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AM33" s="3">
         <v>6</v>
       </c>
-      <c r="AN33" s="3" t="s">
-        <v>49</v>
+      <c r="AN33" t="s">
+        <v>1</v>
       </c>
       <c r="AO33" s="3">
         <v>4</v>
       </c>
-      <c r="AP33" s="7">
-        <v>1</v>
-      </c>
       <c r="AS33" s="7">
         <v>1</v>
       </c>
+      <c r="AT33" s="7">
+        <v>1</v>
+      </c>
       <c r="AV33" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(AP33:AU33)</f>
         <v>2</v>
       </c>
       <c r="AW33" s="3">
@@ -6471,76 +6510,76 @@
     </row>
     <row r="34" spans="1:69">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F34" s="3">
         <v>29</v>
       </c>
       <c r="G34" s="3">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
       </c>
       <c r="I34" s="3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J34" s="3">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K34" s="3">
         <v>8</v>
       </c>
       <c r="L34" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M34" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N34" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="R34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="U34" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V34" s="3">
         <v>1</v>
       </c>
-      <c r="W34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>145</v>
+      <c r="W34" s="3">
+        <v>3</v>
+      </c>
+      <c r="X34" s="3">
+        <v>1</v>
       </c>
       <c r="Y34" s="3" t="s">
         <v>0</v>
@@ -6549,13 +6588,13 @@
         <v>1</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AB34" s="3">
         <v>5</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="AD34" s="3">
         <v>7</v>
@@ -6567,13 +6606,13 @@
         <v>3</v>
       </c>
       <c r="AG34" s="3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="AH34" s="3">
         <v>3</v>
       </c>
       <c r="AI34" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AJ34" s="3">
         <v>3</v>
@@ -6587,7 +6626,7 @@
       <c r="AM34" s="3">
         <v>6</v>
       </c>
-      <c r="AN34" s="3" t="s">
+      <c r="AN34" t="s">
         <v>1</v>
       </c>
       <c r="AO34" s="3">
@@ -6596,21 +6635,12 @@
       <c r="AP34" s="7">
         <v>1</v>
       </c>
-      <c r="AR34" s="7">
-        <v>1</v>
-      </c>
       <c r="AS34" s="7">
         <v>1</v>
       </c>
-      <c r="AT34" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU34" s="7">
-        <v>1</v>
-      </c>
       <c r="AV34" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(AP34:AU34)</f>
+        <v>2</v>
       </c>
       <c r="AW34" s="3">
         <v>3</v>
@@ -6638,43 +6668,43 @@
     </row>
     <row r="35" spans="1:69">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3">
+        <v>27</v>
+      </c>
+      <c r="F35" s="3">
         <v>32</v>
       </c>
-      <c r="E35" s="3">
-        <v>30</v>
-      </c>
-      <c r="F35" s="3">
-        <v>37</v>
-      </c>
       <c r="G35" s="3">
-        <v>33.5</v>
+        <v>29.5</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
       </c>
       <c r="I35" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J35" s="3">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K35" s="3">
         <v>8</v>
       </c>
       <c r="L35" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M35" s="3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N35" s="3">
         <v>11</v>
@@ -6689,16 +6719,16 @@
         <v>31</v>
       </c>
       <c r="R35" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>39</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="U35" s="3">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="V35" s="3">
         <v>1</v>
@@ -6707,22 +6737,22 @@
         <v>3</v>
       </c>
       <c r="X35" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z35" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AB35" s="3">
         <v>5</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="AD35" s="3">
         <v>7</v>
@@ -6734,7 +6764,7 @@
         <v>3</v>
       </c>
       <c r="AG35" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="AH35" s="3">
         <v>3</v>
@@ -6754,24 +6784,27 @@
       <c r="AM35" s="3">
         <v>6</v>
       </c>
-      <c r="AN35" s="3" t="s">
+      <c r="AN35" t="s">
         <v>1</v>
       </c>
       <c r="AO35" s="3">
+        <v>5</v>
+      </c>
+      <c r="AP35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV35" s="3">
+        <f>SUM(AP35:AU35)</f>
         <v>4</v>
-      </c>
-      <c r="AR35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV35" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
       <c r="AW35" s="3">
         <v>3</v>
@@ -6799,34 +6832,34 @@
     </row>
     <row r="36" spans="1:69">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="3">
+        <v>29</v>
+      </c>
+      <c r="F36" s="3">
+        <v>35</v>
+      </c>
+      <c r="G36" s="3">
         <v>32</v>
       </c>
-      <c r="E36" s="3">
-        <v>37</v>
-      </c>
-      <c r="F36" s="3">
-        <v>40</v>
-      </c>
-      <c r="G36" s="3">
-        <v>38.5</v>
-      </c>
       <c r="H36" s="1">
         <v>1</v>
       </c>
       <c r="I36" s="3">
+        <v>44</v>
+      </c>
+      <c r="J36" s="3">
         <v>50</v>
-      </c>
-      <c r="J36" s="3">
-        <v>55</v>
       </c>
       <c r="K36" s="3">
         <v>8</v>
@@ -6835,7 +6868,7 @@
         <v>23</v>
       </c>
       <c r="M36" s="3">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="N36" s="3">
         <v>11</v>
@@ -6850,16 +6883,16 @@
         <v>31</v>
       </c>
       <c r="R36" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="U36" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V36" s="3">
         <v>1</v>
@@ -6877,13 +6910,13 @@
         <v>1</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="AB36" s="3">
         <v>5</v>
       </c>
       <c r="AC36" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="AD36" s="3">
         <v>7</v>
@@ -6895,7 +6928,7 @@
         <v>3</v>
       </c>
       <c r="AG36" s="3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="AH36" s="3">
         <v>3</v>
@@ -6907,29 +6940,32 @@
         <v>3</v>
       </c>
       <c r="AK36" s="3">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AL36" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AM36" s="3">
         <v>6</v>
       </c>
-      <c r="AN36" s="3" t="s">
+      <c r="AN36" t="s">
         <v>1</v>
       </c>
       <c r="AO36" s="3">
         <v>5</v>
       </c>
+      <c r="AP36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS36" s="7">
+        <v>1</v>
+      </c>
       <c r="AT36" s="7">
         <v>1</v>
       </c>
-      <c r="AU36" s="7">
-        <v>1</v>
-      </c>
       <c r="AV36" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(AP36:AU36)</f>
+        <v>3</v>
       </c>
       <c r="AW36" s="3">
         <v>3</v>
@@ -6957,10 +6993,10 @@
     </row>
     <row r="37" spans="1:69">
       <c r="A37" s="3" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>13</v>
@@ -6969,61 +7005,61 @@
         <v>12</v>
       </c>
       <c r="E37" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F37" s="3">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G37" s="3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
       </c>
       <c r="I37" s="3">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J37" s="3">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K37" s="3">
         <v>8</v>
       </c>
       <c r="L37" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M37" s="3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N37" s="3">
         <v>11</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P37" s="1">
         <v>1</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="R37" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="U37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V37" s="3">
         <v>1</v>
       </c>
       <c r="W37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X37" s="3">
         <v>1</v>
@@ -7035,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="AA37" s="3" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="AB37" s="3">
         <v>5</v>
@@ -7047,13 +7083,13 @@
         <v>7</v>
       </c>
       <c r="AE37" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AF37" s="3">
         <v>3</v>
       </c>
       <c r="AG37" s="3" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="AH37" s="3">
         <v>3</v>
@@ -7065,26 +7101,29 @@
         <v>3</v>
       </c>
       <c r="AK37" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL37" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="AM37" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN37" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>49</v>
       </c>
       <c r="AO37" s="3">
         <v>5</v>
       </c>
+      <c r="AQ37" s="7">
+        <v>1</v>
+      </c>
       <c r="AR37" s="7">
         <v>1</v>
       </c>
       <c r="AV37" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(AP37:AU37)</f>
+        <v>2</v>
       </c>
       <c r="AW37" s="3">
         <v>3</v>
@@ -7112,67 +7151,67 @@
     </row>
     <row r="38" spans="1:69">
       <c r="A38" s="3" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E38" s="3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F38" s="3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G38" s="3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
       </c>
       <c r="I38" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J38" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K38" s="3">
         <v>8</v>
       </c>
       <c r="L38" s="3">
+        <v>13</v>
+      </c>
+      <c r="M38" s="3">
         <v>15</v>
       </c>
-      <c r="M38" s="3">
-        <v>17</v>
-      </c>
       <c r="N38" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="R38" s="3">
         <v>2</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="U38" s="3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V38" s="3">
         <v>1</v>
@@ -7181,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="X38" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y38" s="3" t="s">
         <v>0</v>
@@ -7190,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="AB38" s="3">
         <v>5</v>
@@ -7202,56 +7241,47 @@
         <v>7</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="AF38" s="3">
         <v>3</v>
       </c>
       <c r="AG38" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AH38" s="3">
         <v>3</v>
       </c>
       <c r="AI38" s="3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AJ38" s="3">
         <v>3</v>
       </c>
       <c r="AK38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO38" s="3">
+        <v>4</v>
+      </c>
+      <c r="AP38" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS38" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV38" s="3">
+        <f>SUM(AP38:AU38)</f>
         <v>2</v>
-      </c>
-      <c r="AM38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO38" s="3">
-        <v>5</v>
-      </c>
-      <c r="AP38" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR38" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS38" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT38" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU38" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV38" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
       </c>
       <c r="AW38" s="3">
         <v>3</v>
@@ -7279,76 +7309,76 @@
     </row>
     <row r="39" spans="1:69">
       <c r="A39" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E39" s="3">
         <v>25</v>
       </c>
       <c r="F39" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" s="3">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
       </c>
       <c r="I39" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J39" s="3">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K39" s="3">
         <v>8</v>
       </c>
       <c r="L39" s="3">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="M39" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N39" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P39" s="2">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="P39" s="1">
+        <v>3</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="R39" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="U39" s="3">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="V39" s="3">
         <v>1</v>
       </c>
-      <c r="W39" s="3">
-        <v>3</v>
-      </c>
-      <c r="X39" s="3">
-        <v>1</v>
+      <c r="W39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="Y39" s="3" t="s">
         <v>0</v>
@@ -7369,7 +7399,7 @@
         <v>7</v>
       </c>
       <c r="AE39" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AF39" s="3">
         <v>3</v>
@@ -7381,21 +7411,21 @@
         <v>3</v>
       </c>
       <c r="AI39" s="3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AJ39" s="3">
         <v>3</v>
       </c>
       <c r="AK39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL39" s="3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="AM39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN39" t="s">
         <v>1</v>
       </c>
       <c r="AO39" s="3">
@@ -7417,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="AV39" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(AP39:AU39)</f>
         <v>5</v>
       </c>
       <c r="AW39" s="3">
@@ -7437,8 +7467,716 @@
       <c r="BI39" s="9"/>
       <c r="BO39" s="9"/>
     </row>
+    <row r="40" spans="1:69">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="3">
+        <v>30</v>
+      </c>
+      <c r="F40" s="3">
+        <v>37</v>
+      </c>
+      <c r="G40" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>45</v>
+      </c>
+      <c r="J40" s="3">
+        <v>51</v>
+      </c>
+      <c r="K40" s="3">
+        <v>8</v>
+      </c>
+      <c r="L40" s="3">
+        <v>17</v>
+      </c>
+      <c r="M40" s="3">
+        <v>20</v>
+      </c>
+      <c r="N40" s="3">
+        <v>11</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="3">
+        <v>6</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U40" s="3">
+        <v>4</v>
+      </c>
+      <c r="V40" s="3">
+        <v>1</v>
+      </c>
+      <c r="W40" s="3">
+        <v>3</v>
+      </c>
+      <c r="X40" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF40" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK40" s="3">
+        <v>2</v>
+      </c>
+      <c r="AL40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM40" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="3">
+        <v>4</v>
+      </c>
+      <c r="AR40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV40" s="3">
+        <f>SUM(AP40:AU40)</f>
+        <v>3</v>
+      </c>
+      <c r="AW40" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:69">
+      <c r="A41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="3">
+        <v>37</v>
+      </c>
+      <c r="F41" s="3">
+        <v>40</v>
+      </c>
+      <c r="G41" s="3">
+        <v>38.5</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <v>50</v>
+      </c>
+      <c r="J41" s="3">
+        <v>55</v>
+      </c>
+      <c r="K41" s="3">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
+        <v>23</v>
+      </c>
+      <c r="M41" s="3">
+        <v>26</v>
+      </c>
+      <c r="N41" s="3">
+        <v>11</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="3">
+        <v>6</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U41" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="V41" s="3">
+        <v>1</v>
+      </c>
+      <c r="W41" s="3">
+        <v>3</v>
+      </c>
+      <c r="X41" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="AL41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="3">
+        <v>5</v>
+      </c>
+      <c r="AT41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="3">
+        <f>SUM(AP41:AU41)</f>
+        <v>2</v>
+      </c>
+      <c r="AW41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:69">
+      <c r="A42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="3">
+        <v>18</v>
+      </c>
+      <c r="F42" s="3">
+        <v>24</v>
+      </c>
+      <c r="G42" s="3">
+        <v>21</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>29</v>
+      </c>
+      <c r="J42" s="3">
+        <v>34</v>
+      </c>
+      <c r="K42" s="3">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
+        <v>13</v>
+      </c>
+      <c r="M42" s="3">
+        <v>16</v>
+      </c>
+      <c r="N42" s="3">
+        <v>11</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R42" s="3">
+        <v>1</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U42" s="3">
+        <v>2</v>
+      </c>
+      <c r="V42" s="3">
+        <v>1</v>
+      </c>
+      <c r="W42" s="3">
+        <v>2</v>
+      </c>
+      <c r="X42" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ42" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="3">
+        <v>5</v>
+      </c>
+      <c r="AR42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV42" s="3">
+        <f>SUM(AP42:AU42)</f>
+        <v>1</v>
+      </c>
+      <c r="AW42" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:69">
+      <c r="A43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20</v>
+      </c>
+      <c r="F43" s="3">
+        <v>26</v>
+      </c>
+      <c r="G43" s="3">
+        <v>23</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <v>34</v>
+      </c>
+      <c r="J43" s="3">
+        <v>39</v>
+      </c>
+      <c r="K43" s="3">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
+        <v>15</v>
+      </c>
+      <c r="M43" s="3">
+        <v>17</v>
+      </c>
+      <c r="N43" s="3">
+        <v>11</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" s="3">
+        <v>2</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U43" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="V43" s="3">
+        <v>1</v>
+      </c>
+      <c r="W43" s="3">
+        <v>2</v>
+      </c>
+      <c r="X43" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ43" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="3">
+        <v>5</v>
+      </c>
+      <c r="AP43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV43" s="3">
+        <f>SUM(AP43:AU43)</f>
+        <v>5</v>
+      </c>
+      <c r="AW43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:69">
+      <c r="A44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="3">
+        <v>25</v>
+      </c>
+      <c r="F44" s="3">
+        <v>30</v>
+      </c>
+      <c r="G44" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3">
+        <v>35</v>
+      </c>
+      <c r="J44" s="3">
+        <v>44</v>
+      </c>
+      <c r="K44" s="3">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="M44" s="3">
+        <v>18</v>
+      </c>
+      <c r="N44" s="3">
+        <v>11</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="R44" s="3">
+        <v>6</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
+        <v>1</v>
+      </c>
+      <c r="W44" s="3">
+        <v>3</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ44" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="3">
+        <v>5</v>
+      </c>
+      <c r="AP44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV44" s="3">
+        <f>SUM(AP44:AU44)</f>
+        <v>5</v>
+      </c>
+      <c r="AW44" s="3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:AN39">
+  <sortState ref="A2:AW44">
     <sortCondition ref="A1"/>
   </sortState>
   <dataValidations count="6">
@@ -7472,10 +8210,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7577,6 +8315,14 @@
       </c>
       <c r="B12" s="3" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -7589,7 +8335,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/Trait_data_and_sources.xlsx
+++ b/Data/Trait_data_and_sources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="20955" windowHeight="9465"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="20955" windowHeight="9465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="254">
   <si>
     <t>N</t>
   </si>
@@ -703,9 +703,6 @@
     <t>Categorical variable that groups species based on distribution size: very widespread, widespread, local, scarce, rare, very rare.</t>
   </si>
   <si>
-    <t>A binary variable describing a species emergence strategy: 1) Spring emergence = highly synchronised, 2) Summer emergence = temporally dispersed  emergence</t>
-  </si>
-  <si>
     <t>Species classified using the Red List criteria</t>
   </si>
   <si>
@@ -782,6 +779,12 @@
   </si>
   <si>
     <t>Merritt, R., Moore, N. W. &amp; Eversham, B. C. (1996) Atlas of the dragonflies of Britain and Ireland. HMSO Great Britain.</t>
+  </si>
+  <si>
+    <t>Brooks, S. (2013) Pers. Comm.</t>
+  </si>
+  <si>
+    <t>A variable describing a species emergence strategy: 1) Spring emergence = highly synchronised, 2) Summer emergence = temporally dispersed  emergence, 3) Type 3 Summer = Obligatorily univoltine species.</t>
   </si>
 </sst>
 </file>
@@ -1203,9 +1206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BR44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN2" sqref="AN2:AN44"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE44" sqref="AE44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1379,7 +1382,7 @@
         <v>201</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AP1" s="5" t="s">
         <v>160</v>
@@ -1408,10 +1411,10 @@
     </row>
     <row r="2" spans="1:69">
       <c r="A2" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -1487,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB2" s="3">
         <v>5</v>
@@ -1695,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="AV3" s="3">
-        <f>SUM(AP3:AU3)</f>
+        <f t="shared" ref="AV3:AV18" si="0">SUM(AP3:AU3)</f>
         <v>2</v>
       </c>
       <c r="AW3" s="3">
@@ -1856,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="AV4" s="3">
-        <f>SUM(AP4:AU4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AW4" s="3">
@@ -2023,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="AV5" s="3">
-        <f>SUM(AP5:AU5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AW5" s="3">
@@ -2142,10 +2145,10 @@
         <v>7</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="AF6" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AG6" s="3" t="s">
         <v>145</v>
@@ -2181,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="AV6" s="3">
-        <f>SUM(AP6:AU6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AW6" s="3">
@@ -2288,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB7" s="3">
         <v>5</v>
@@ -2342,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="AV7" s="3">
-        <f>SUM(AP7:AU7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AW7" s="3">
@@ -2506,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="AV8" s="3">
-        <f>SUM(AP8:AU8)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AW8" s="3">
@@ -2673,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="AV9" s="3">
-        <f>SUM(AP9:AU9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AW9" s="3">
@@ -2837,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="AV10" s="3">
-        <f>SUM(AP10:AU10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AW10" s="3">
@@ -2992,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="AV11" s="3">
-        <f>SUM(AP11:AU11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AW11" s="3">
@@ -3147,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="AV12" s="3">
-        <f>SUM(AP12:AU12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AW12" s="3">
@@ -3302,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="AV13" s="3">
-        <f>SUM(AP13:AU13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AW13" s="3">
@@ -3460,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="AV14" s="3">
-        <f>SUM(AP14:AU14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AW14" s="3">
@@ -3605,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="AV15" s="3">
-        <f>SUM(AP15:AU15)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AW15" s="3">
@@ -3763,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="AV16" s="3">
-        <f>SUM(AP16:AU16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AW16" s="3">
@@ -3927,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="AV17" s="3">
-        <f>SUM(AP17:AU17)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AW17" s="3">
@@ -4088,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="AV18" s="3">
-        <f>SUM(AP18:AU18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AW18" s="3">
@@ -4117,10 +4120,10 @@
     </row>
     <row r="19" spans="1:69">
       <c r="A19" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>46</v>
@@ -4403,12 +4406,8 @@
       <c r="AR20" s="7">
         <v>1</v>
       </c>
-      <c r="AU20" s="7">
-        <v>1</v>
-      </c>
       <c r="AV20" s="3">
-        <f>SUM(AP20:AU20)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW20" s="3">
         <v>3</v>
@@ -4928,10 +4927,10 @@
     </row>
     <row r="24" spans="1:69">
       <c r="A24" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>46</v>
@@ -5569,10 +5568,10 @@
     </row>
     <row r="28" spans="1:69">
       <c r="A28" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
@@ -5624,10 +5623,10 @@
         <v>1</v>
       </c>
       <c r="S28" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="T28" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="U28" s="3">
         <v>4</v>
@@ -6049,10 +6048,10 @@
     </row>
     <row r="31" spans="1:69">
       <c r="A31" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -6330,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="AV32" s="3">
-        <f>SUM(AP32:AU32)</f>
+        <f t="shared" ref="AV32:AV44" si="1">SUM(AP32:AU32)</f>
         <v>1</v>
       </c>
       <c r="AW32" s="3">
@@ -6488,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="AV33" s="3">
-        <f>SUM(AP33:AU33)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AW33" s="3">
@@ -6639,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="AV34" s="3">
-        <f>SUM(AP34:AU34)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AW34" s="3">
@@ -6803,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AV35" s="3">
-        <f>SUM(AP35:AU35)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AW35" s="3">
@@ -6964,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="AV36" s="3">
-        <f>SUM(AP36:AU36)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AW36" s="3">
@@ -7122,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="AV37" s="3">
-        <f>SUM(AP37:AU37)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AW37" s="3">
@@ -7241,10 +7240,10 @@
         <v>7</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="AF38" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AG38" s="3" t="s">
         <v>50</v>
@@ -7280,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="AV38" s="3">
-        <f>SUM(AP38:AU38)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AW38" s="3">
@@ -7447,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="AV39" s="3">
-        <f>SUM(AP39:AU39)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AW39" s="3">
@@ -7601,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="AV40" s="3">
-        <f>SUM(AP40:AU40)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AW40" s="3">
@@ -7739,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AV41" s="3">
-        <f>SUM(AP41:AU41)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AW41" s="3">
@@ -7820,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z42" s="3">
         <v>1</v>
@@ -7874,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="AV42" s="3">
-        <f>SUM(AP42:AU42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AW42" s="3">
@@ -8021,7 +8020,7 @@
         <v>1</v>
       </c>
       <c r="AV43" s="3">
-        <f>SUM(AP43:AU43)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AW43" s="3">
@@ -8102,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z44" s="3">
         <v>1</v>
@@ -8168,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="AV44" s="3">
-        <f>SUM(AP44:AU44)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AW44" s="3">
@@ -8210,10 +8209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8322,6 +8321,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>252</v>
       </c>
     </row>
@@ -8334,14 +8341,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="146.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="183.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8373,7 +8380,7 @@
         <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8429,7 +8436,7 @@
         <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8437,7 +8444,7 @@
         <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8445,7 +8452,7 @@
         <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8453,7 +8460,7 @@
         <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8461,7 +8468,7 @@
         <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8469,23 +8476,23 @@
         <v>152</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8493,7 +8500,7 @@
         <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trait_data_and_sources.xlsx
+++ b/Data/Trait_data_and_sources.xlsx
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$X$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$V$39</definedName>
     <definedName name="Sex">[1]Lookups!$A$53:$A$56</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="251">
   <si>
     <t>N</t>
   </si>
@@ -517,9 +517,6 @@
     <t>JNCC Red List status</t>
   </si>
   <si>
-    <t>Flight power</t>
-  </si>
-  <si>
     <t>Overwintering stage</t>
   </si>
   <si>
@@ -580,9 +577,6 @@
     <t>Hammond, C. O. (1983) The dragonflies of Great Britain and Ireland.  Harley Books, Essex.</t>
   </si>
   <si>
-    <t>Flight power - Source</t>
-  </si>
-  <si>
     <t>Red list - Source</t>
   </si>
   <si>
@@ -692,9 +686,6 @@
   </si>
   <si>
     <t>The start, end and total duration (in months) of the flight period.</t>
-  </si>
-  <si>
-    <t>Categorical variable with 4 levels: 1 = weak, 2 = relatively weak, 3 = relatively strong, 4 = strong.</t>
   </si>
   <si>
     <t>Binary variable, do adults routinely migrate to/from the UK.</t>
@@ -1204,11 +1195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR44"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE44" sqref="AE44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1230,60 +1221,58 @@
     <col min="20" max="20" width="15.42578125" style="3" customWidth="1"/>
     <col min="21" max="21" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29.42578125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="3"/>
-    <col min="24" max="24" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.85546875" style="3"/>
-    <col min="27" max="27" width="19.7109375" style="3" customWidth="1"/>
-    <col min="28" max="28" width="14" style="3" customWidth="1"/>
-    <col min="29" max="29" width="8.85546875" style="3"/>
-    <col min="30" max="30" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" style="3" customWidth="1"/>
-    <col min="33" max="33" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.85546875" style="3" customWidth="1"/>
-    <col min="35" max="36" width="31.7109375" style="3" customWidth="1"/>
-    <col min="37" max="37" width="13.42578125" style="3" customWidth="1"/>
-    <col min="38" max="39" width="12.5703125" style="3" customWidth="1"/>
-    <col min="40" max="41" width="15" style="3" customWidth="1"/>
-    <col min="42" max="42" width="24" style="7" customWidth="1"/>
-    <col min="43" max="43" width="18.140625" style="7" customWidth="1"/>
-    <col min="44" max="44" width="32.5703125" style="7" customWidth="1"/>
-    <col min="45" max="45" width="21.5703125" style="7" customWidth="1"/>
-    <col min="46" max="46" width="26.28515625" style="7" customWidth="1"/>
-    <col min="47" max="47" width="20" style="7" customWidth="1"/>
-    <col min="48" max="48" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" style="3"/>
-    <col min="50" max="51" width="17.85546875" style="10" customWidth="1"/>
-    <col min="52" max="52" width="19.85546875" style="10" customWidth="1"/>
-    <col min="53" max="66" width="17.85546875" style="8" customWidth="1"/>
-    <col min="67" max="67" width="21.7109375" style="8" customWidth="1"/>
-    <col min="68" max="70" width="17.85546875" style="8" customWidth="1"/>
+    <col min="23" max="24" width="8.85546875" style="3"/>
+    <col min="25" max="25" width="19.7109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="14" style="3" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="3"/>
+    <col min="28" max="28" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.85546875" style="3" customWidth="1"/>
+    <col min="33" max="34" width="31.7109375" style="3" customWidth="1"/>
+    <col min="35" max="35" width="13.42578125" style="3" customWidth="1"/>
+    <col min="36" max="37" width="12.5703125" style="3" customWidth="1"/>
+    <col min="38" max="39" width="15" style="3" customWidth="1"/>
+    <col min="40" max="40" width="24" style="7" customWidth="1"/>
+    <col min="41" max="41" width="18.140625" style="7" customWidth="1"/>
+    <col min="42" max="42" width="32.5703125" style="7" customWidth="1"/>
+    <col min="43" max="43" width="21.5703125" style="7" customWidth="1"/>
+    <col min="44" max="44" width="26.28515625" style="7" customWidth="1"/>
+    <col min="45" max="45" width="20" style="7" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" style="3"/>
+    <col min="48" max="49" width="17.85546875" style="10" customWidth="1"/>
+    <col min="50" max="50" width="19.85546875" style="10" customWidth="1"/>
+    <col min="51" max="64" width="17.85546875" style="8" customWidth="1"/>
+    <col min="65" max="65" width="21.7109375" style="8" customWidth="1"/>
+    <col min="66" max="68" width="17.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:67">
       <c r="A1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>151</v>
@@ -1292,129 +1281,123 @@
         <v>150</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AU1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW1" s="6" t="s">
-        <v>189</v>
-      </c>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:67">
       <c r="A2" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -1477,78 +1460,74 @@
       <c r="V2" s="3">
         <v>1</v>
       </c>
-      <c r="W2" s="3">
-        <v>4</v>
+      <c r="W2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="Z2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="AB2" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>7</v>
+        <v>145</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AE2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>3</v>
       </c>
       <c r="AK2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="3">
+      <c r="AL2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="3">
         <v>8</v>
       </c>
-      <c r="AS2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="3">
+      <c r="AQ2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="3">
         <v>2</v>
       </c>
-      <c r="AW2" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU2" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
       <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="9"/>
       <c r="BA2" s="9"/>
       <c r="BB2" s="9"/>
       <c r="BC2" s="9"/>
@@ -1564,10 +1543,8 @@
       <c r="BM2" s="9"/>
       <c r="BN2" s="9"/>
       <c r="BO2" s="9"/>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="9"/>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:67">
       <c r="A3" s="3" t="s">
         <v>144</v>
       </c>
@@ -1617,10 +1594,10 @@
         <v>1</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>9</v>
@@ -1634,79 +1611,75 @@
       <c r="V3" s="3">
         <v>1</v>
       </c>
-      <c r="W3" s="3">
-        <v>4</v>
+      <c r="W3" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>6</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="3">
+        <f t="shared" ref="AT3:AT18" si="0">SUM(AN3:AS3)</f>
         <v>2</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>6</v>
-      </c>
-      <c r="AR3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="3">
-        <f t="shared" ref="AV3:AV18" si="0">SUM(AP3:AU3)</f>
-        <v>2</v>
-      </c>
-      <c r="AW3" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU3" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
       <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
       <c r="BA3" s="9"/>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
@@ -1722,10 +1695,8 @@
       <c r="BM3" s="9"/>
       <c r="BN3" s="9"/>
       <c r="BO3" s="9"/>
-      <c r="BP3" s="9"/>
-      <c r="BQ3" s="9"/>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:67">
       <c r="A4" s="3" t="s">
         <v>141</v>
       </c>
@@ -1775,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R4" s="3">
         <v>1</v>
@@ -1792,82 +1763,78 @@
       <c r="V4" s="3">
         <v>1</v>
       </c>
-      <c r="W4" s="3">
-        <v>4</v>
+      <c r="W4" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z4" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="3">
         <v>7</v>
       </c>
-      <c r="AB4" s="3">
-        <v>5</v>
-      </c>
       <c r="AC4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK4" s="3">
         <v>6</v>
       </c>
-      <c r="AD4" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>26</v>
+      <c r="AL4" t="s">
+        <v>1</v>
       </c>
       <c r="AM4" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="3">
         <v>8</v>
       </c>
-      <c r="AP4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="3">
+      <c r="AN4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AW4" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
       <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
       <c r="BA4" s="9"/>
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
@@ -1883,10 +1850,8 @@
       <c r="BM4" s="9"/>
       <c r="BN4" s="9"/>
       <c r="BO4" s="9"/>
-      <c r="BP4" s="9"/>
-      <c r="BQ4" s="9"/>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:67">
       <c r="A5" s="3" t="s">
         <v>138</v>
       </c>
@@ -1936,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R5" s="3">
         <v>1</v>
@@ -1953,88 +1918,84 @@
       <c r="V5" s="3">
         <v>1</v>
       </c>
-      <c r="W5" s="3">
-        <v>3</v>
+      <c r="W5" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z5" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="3">
         <v>7</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AC5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="3">
         <v>5</v>
       </c>
-      <c r="AC5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ5" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>5</v>
+      <c r="AN5" s="7">
+        <v>1</v>
       </c>
       <c r="AP5" s="7">
         <v>1</v>
       </c>
+      <c r="AQ5" s="7">
+        <v>1</v>
+      </c>
       <c r="AR5" s="7">
         <v>1</v>
       </c>
       <c r="AS5" s="7">
         <v>1</v>
       </c>
-      <c r="AT5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="3">
+      <c r="AT5" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AW5" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
       <c r="AX5" s="11"/>
-      <c r="AY5" s="11"/>
-      <c r="AZ5" s="11"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
       <c r="BA5" s="9"/>
       <c r="BB5" s="9"/>
       <c r="BC5" s="9"/>
@@ -2050,10 +2011,8 @@
       <c r="BM5" s="9"/>
       <c r="BN5" s="9"/>
       <c r="BO5" s="9"/>
-      <c r="BP5" s="9"/>
-      <c r="BQ5" s="9"/>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:67">
       <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
@@ -2103,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R6" s="3">
         <v>3</v>
@@ -2120,79 +2079,75 @@
       <c r="V6" s="3">
         <v>1</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="3">
         <v>2</v>
       </c>
-      <c r="X6" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>13</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>3</v>
+      <c r="AJ6" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AK6" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>1</v>
       </c>
       <c r="AM6" s="3">
         <v>9</v>
       </c>
-      <c r="AN6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>9</v>
-      </c>
-      <c r="AS6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="3">
+      <c r="AQ6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AW6" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
       <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="11"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
       <c r="BA6" s="9"/>
       <c r="BB6" s="9"/>
       <c r="BC6" s="9"/>
@@ -2208,10 +2163,8 @@
       <c r="BM6" s="9"/>
       <c r="BN6" s="9"/>
       <c r="BO6" s="9"/>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="9"/>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:67">
       <c r="A7" s="3" t="s">
         <v>133</v>
       </c>
@@ -2278,82 +2231,78 @@
       <c r="V7" s="3">
         <v>1</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X7" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="Z7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB7" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK7" s="3">
         <v>6</v>
       </c>
-      <c r="AD7" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ7" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK7" s="3">
+      <c r="AL7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="3">
         <v>2</v>
       </c>
-      <c r="AL7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>2</v>
+      <c r="AP7" s="7">
+        <v>1</v>
       </c>
       <c r="AR7" s="7">
         <v>1</v>
       </c>
-      <c r="AT7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="3">
+      <c r="AS7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AW7" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
       <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9"/>
       <c r="BC7" s="9"/>
@@ -2369,10 +2318,8 @@
       <c r="BM7" s="9"/>
       <c r="BN7" s="9"/>
       <c r="BO7" s="9"/>
-      <c r="BP7" s="9"/>
-      <c r="BQ7" s="9"/>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:67">
       <c r="A8" s="3" t="s">
         <v>130</v>
       </c>
@@ -2439,85 +2386,81 @@
       <c r="V8" s="3">
         <v>1</v>
       </c>
-      <c r="W8" s="3">
-        <v>3</v>
+      <c r="W8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="3">
+      <c r="AK8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="3">
         <v>5</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>5</v>
-      </c>
-      <c r="AP8" s="7">
+      <c r="AN8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="7">
         <v>1</v>
       </c>
       <c r="AS8" s="7">
         <v>1</v>
       </c>
-      <c r="AT8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="3">
+      <c r="AT8" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AW8" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
       <c r="AX8" s="11"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
       <c r="BA8" s="9"/>
       <c r="BB8" s="9"/>
       <c r="BC8" s="9"/>
@@ -2533,10 +2476,8 @@
       <c r="BM8" s="9"/>
       <c r="BN8" s="9"/>
       <c r="BO8" s="9"/>
-      <c r="BP8" s="9"/>
-      <c r="BQ8" s="9"/>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:67">
       <c r="A9" s="3" t="s">
         <v>127</v>
       </c>
@@ -2603,88 +2544,84 @@
       <c r="V9" s="3">
         <v>1</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
         <v>4</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="3">
         <v>2</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AL9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO9" s="3">
-        <v>2</v>
+      <c r="AN9" s="7">
+        <v>1</v>
       </c>
       <c r="AP9" s="7">
         <v>1</v>
       </c>
+      <c r="AQ9" s="7">
+        <v>1</v>
+      </c>
       <c r="AR9" s="7">
         <v>1</v>
       </c>
       <c r="AS9" s="7">
         <v>1</v>
       </c>
-      <c r="AT9" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="3">
+      <c r="AT9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AW9" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
       <c r="AX9" s="11"/>
-      <c r="AY9" s="11"/>
-      <c r="AZ9" s="11"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
       <c r="BA9" s="9"/>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
@@ -2700,10 +2637,8 @@
       <c r="BM9" s="9"/>
       <c r="BN9" s="9"/>
       <c r="BO9" s="9"/>
-      <c r="BP9" s="9"/>
-      <c r="BQ9" s="9"/>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:67">
       <c r="A10" s="3" t="s">
         <v>124</v>
       </c>
@@ -2770,85 +2705,81 @@
       <c r="V10" s="3">
         <v>1</v>
       </c>
-      <c r="W10" s="3">
-        <v>2</v>
+      <c r="W10" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="Z10" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="AB10" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="3">
         <v>5</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="AL10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO10" s="3">
-        <v>5</v>
+      <c r="AN10" s="7">
+        <v>1</v>
       </c>
       <c r="AP10" s="7">
         <v>1</v>
       </c>
+      <c r="AQ10" s="7">
+        <v>1</v>
+      </c>
       <c r="AR10" s="7">
         <v>1</v>
       </c>
-      <c r="AS10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="3">
+      <c r="AT10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AW10" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
       <c r="AX10" s="11"/>
-      <c r="AY10" s="11"/>
-      <c r="AZ10" s="11"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
       <c r="BC10" s="9"/>
@@ -2864,10 +2795,8 @@
       <c r="BM10" s="9"/>
       <c r="BN10" s="9"/>
       <c r="BO10" s="9"/>
-      <c r="BP10" s="9"/>
-      <c r="BQ10" s="9"/>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:67">
       <c r="A11" s="3" t="s">
         <v>121</v>
       </c>
@@ -2934,76 +2863,72 @@
       <c r="V11" s="3">
         <v>1</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="3">
         <v>2</v>
       </c>
-      <c r="X11" s="3">
+      <c r="AJ11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM11" s="3">
         <v>4</v>
       </c>
-      <c r="Y11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO11" s="3">
-        <v>4</v>
-      </c>
-      <c r="AP11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="3">
+      <c r="AN11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AW11" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU11" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
       <c r="AX11" s="11"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="11"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
       <c r="BA11" s="9"/>
       <c r="BB11" s="9"/>
       <c r="BC11" s="9"/>
@@ -3019,10 +2944,8 @@
       <c r="BM11" s="9"/>
       <c r="BN11" s="9"/>
       <c r="BO11" s="9"/>
-      <c r="BP11" s="9"/>
-      <c r="BQ11" s="9"/>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:67">
       <c r="A12" s="3" t="s">
         <v>119</v>
       </c>
@@ -3089,76 +3012,72 @@
       <c r="V12" s="3">
         <v>1</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI12" s="3">
         <v>2</v>
       </c>
-      <c r="X12" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AJ12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM12" s="3">
         <v>4</v>
       </c>
-      <c r="AB12" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>4</v>
-      </c>
-      <c r="AQ12" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="3">
+      <c r="AO12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AW12" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
       <c r="AX12" s="11"/>
-      <c r="AY12" s="11"/>
-      <c r="AZ12" s="11"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
       <c r="BA12" s="9"/>
       <c r="BB12" s="9"/>
       <c r="BC12" s="9"/>
@@ -3174,10 +3093,8 @@
       <c r="BM12" s="9"/>
       <c r="BN12" s="9"/>
       <c r="BO12" s="9"/>
-      <c r="BP12" s="9"/>
-      <c r="BQ12" s="9"/>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:67">
       <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
@@ -3244,76 +3161,72 @@
       <c r="V13" s="3">
         <v>1</v>
       </c>
-      <c r="W13" s="3">
-        <v>1</v>
+      <c r="W13" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z13" s="3">
         <v>5</v>
       </c>
-      <c r="Y13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>1</v>
-      </c>
       <c r="AA13" s="3" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="AB13" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="AD13" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="AF13" s="3">
         <v>3</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH13" s="3">
         <v>3</v>
       </c>
-      <c r="AI13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>3</v>
+      <c r="AI13" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AK13" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL13" s="3" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>1</v>
       </c>
       <c r="AM13" s="3">
         <v>10</v>
       </c>
-      <c r="AN13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>10</v>
-      </c>
-      <c r="AR13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="3">
+      <c r="AP13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AW13" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
       <c r="AX13" s="11"/>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
       <c r="BA13" s="9"/>
       <c r="BB13" s="9"/>
       <c r="BC13" s="9"/>
@@ -3329,10 +3242,8 @@
       <c r="BM13" s="9"/>
       <c r="BN13" s="9"/>
       <c r="BO13" s="9"/>
-      <c r="BP13" s="9"/>
-      <c r="BQ13" s="9"/>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:67">
       <c r="A14" s="3" t="s">
         <v>114</v>
       </c>
@@ -3399,82 +3310,76 @@
       <c r="V14" s="3">
         <v>1</v>
       </c>
-      <c r="W14" s="3">
-        <v>1</v>
+      <c r="W14" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>1</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="Z14" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AB14" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AD14" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="AF14" s="3">
         <v>3</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AH14" s="3">
         <v>3</v>
       </c>
-      <c r="AI14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ14" s="3">
-        <v>3</v>
+      <c r="AI14" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="AK14" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AL14" s="3" t="s">
-        <v>82</v>
+        <v>6</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>1</v>
       </c>
       <c r="AM14" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="3">
         <v>9</v>
       </c>
-      <c r="AT14" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="3">
+      <c r="AR14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AW14" s="3">
-        <v>3</v>
-      </c>
-      <c r="BC14" s="9"/>
-      <c r="BF14" s="9"/>
-      <c r="BI14" s="9"/>
-      <c r="BO14" s="9"/>
+      <c r="AU14" s="3">
+        <v>3</v>
+      </c>
+      <c r="BA14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BM14" s="9"/>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:67">
       <c r="A15" s="3" t="s">
         <v>148</v>
       </c>
@@ -3541,29 +3446,29 @@
       <c r="V15" s="3">
         <v>1</v>
       </c>
-      <c r="W15" s="3">
-        <v>1</v>
+      <c r="W15" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z15" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="AB15" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>145</v>
       </c>
       <c r="AD15" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>145</v>
@@ -3572,51 +3477,47 @@
         <v>3</v>
       </c>
       <c r="AG15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AH15" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ15" s="3">
-        <v>3</v>
+      <c r="AJ15" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AK15" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AL15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="3">
+      <c r="AL15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="3">
         <v>4</v>
       </c>
+      <c r="AP15" s="7">
+        <v>1</v>
+      </c>
       <c r="AR15" s="7">
         <v>1</v>
       </c>
-      <c r="AT15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV15" s="3">
+      <c r="AS15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AW15" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
       <c r="AX15" s="11"/>
-      <c r="AY15" s="11"/>
-      <c r="AZ15" s="11"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
       <c r="BC15" s="9"/>
@@ -3632,10 +3533,8 @@
       <c r="BM15" s="9"/>
       <c r="BN15" s="9"/>
       <c r="BO15" s="9"/>
-      <c r="BP15" s="9"/>
-      <c r="BQ15" s="9"/>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:67">
       <c r="A16" s="3" t="s">
         <v>111</v>
       </c>
@@ -3702,79 +3601,75 @@
       <c r="V16" s="3">
         <v>1</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="3">
         <v>2</v>
       </c>
-      <c r="X16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB16" s="3">
+      <c r="AJ16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM16" s="3">
         <v>5</v>
       </c>
-      <c r="AC16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH16" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ16" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK16" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO16" s="3">
-        <v>5</v>
-      </c>
-      <c r="AQ16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR16" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="3">
+      <c r="AO16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AW16" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
       <c r="AX16" s="11"/>
-      <c r="AY16" s="11"/>
-      <c r="AZ16" s="11"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
       <c r="BC16" s="9"/>
@@ -3790,10 +3685,8 @@
       <c r="BM16" s="9"/>
       <c r="BN16" s="9"/>
       <c r="BO16" s="9"/>
-      <c r="BP16" s="9"/>
-      <c r="BQ16" s="9"/>
     </row>
-    <row r="17" spans="1:69">
+    <row r="17" spans="1:67">
       <c r="A17" s="3" t="s">
         <v>109</v>
       </c>
@@ -3860,85 +3753,81 @@
       <c r="V17" s="3">
         <v>1</v>
       </c>
-      <c r="W17" s="3">
-        <v>2</v>
+      <c r="W17" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z17" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="3">
         <v>7</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="3">
         <v>5</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH17" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ17" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK17" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AL17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM17" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO17" s="3">
-        <v>5</v>
-      </c>
-      <c r="AP17" s="7">
+      <c r="AN17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="7">
         <v>1</v>
       </c>
       <c r="AS17" s="7">
         <v>1</v>
       </c>
-      <c r="AT17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="3">
+      <c r="AT17" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AW17" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
       <c r="AX17" s="11"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
       <c r="BC17" s="9"/>
@@ -3954,10 +3843,8 @@
       <c r="BM17" s="9"/>
       <c r="BN17" s="9"/>
       <c r="BO17" s="9"/>
-      <c r="BP17" s="9"/>
-      <c r="BQ17" s="9"/>
     </row>
-    <row r="18" spans="1:69">
+    <row r="18" spans="1:67">
       <c r="A18" s="3" t="s">
         <v>107</v>
       </c>
@@ -4024,82 +3911,78 @@
       <c r="V18" s="3">
         <v>1</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="X18" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF18" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH18" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ18" s="3">
-        <v>3</v>
-      </c>
       <c r="AK18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>1</v>
       </c>
       <c r="AM18" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="3">
         <v>4</v>
       </c>
-      <c r="AP18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="3">
+      <c r="AN18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AW18" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
       <c r="AX18" s="11"/>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="11"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
       <c r="BC18" s="9"/>
@@ -4115,15 +3998,13 @@
       <c r="BM18" s="9"/>
       <c r="BN18" s="9"/>
       <c r="BO18" s="9"/>
-      <c r="BP18" s="9"/>
-      <c r="BQ18" s="9"/>
     </row>
-    <row r="19" spans="1:69">
+    <row r="19" spans="1:67">
       <c r="A19" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>46</v>
@@ -4186,78 +4067,74 @@
       <c r="V19" s="3">
         <v>1</v>
       </c>
-      <c r="W19" s="3">
-        <v>2</v>
+      <c r="W19" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="Z19" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="AC19" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="AD19" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="AE19" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>145</v>
+        <v>17</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>1</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AH19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>1</v>
       </c>
       <c r="AJ19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="3">
         <v>1</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AL19" t="s">
         <v>1</v>
       </c>
       <c r="AM19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO19" s="3">
         <v>9</v>
       </c>
+      <c r="AO19" s="7">
+        <v>1</v>
+      </c>
       <c r="AQ19" s="7">
         <v>1</v>
       </c>
-      <c r="AS19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV19" s="3">
-        <v>3</v>
-      </c>
-      <c r="AW19" s="3">
-        <v>3</v>
-      </c>
+      <c r="AR19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="3">
+        <v>3</v>
+      </c>
+      <c r="AU19" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
       <c r="AX19" s="11"/>
-      <c r="AY19" s="11"/>
-      <c r="AZ19" s="11"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
       <c r="BC19" s="9"/>
@@ -4273,10 +4150,8 @@
       <c r="BM19" s="9"/>
       <c r="BN19" s="9"/>
       <c r="BO19" s="9"/>
-      <c r="BP19" s="9"/>
-      <c r="BQ19" s="9"/>
     </row>
-    <row r="20" spans="1:69">
+    <row r="20" spans="1:67">
       <c r="A20" s="3" t="s">
         <v>105</v>
       </c>
@@ -4343,78 +4218,74 @@
       <c r="V20" s="3">
         <v>1</v>
       </c>
-      <c r="W20" s="3">
-        <v>3</v>
+      <c r="W20" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>5</v>
+      </c>
+      <c r="AO20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="3">
         <v>2</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH20" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ20" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK20" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="AL20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM20" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO20" s="3">
-        <v>5</v>
-      </c>
-      <c r="AQ20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="3">
-        <v>2</v>
-      </c>
-      <c r="AW20" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU20" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
       <c r="AX20" s="11"/>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="11"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
       <c r="BC20" s="9"/>
@@ -4430,10 +4301,8 @@
       <c r="BM20" s="9"/>
       <c r="BN20" s="9"/>
       <c r="BO20" s="9"/>
-      <c r="BP20" s="9"/>
-      <c r="BQ20" s="9"/>
     </row>
-    <row r="21" spans="1:69">
+    <row r="21" spans="1:67">
       <c r="A21" s="3" t="s">
         <v>101</v>
       </c>
@@ -4500,82 +4369,78 @@
       <c r="V21" s="3">
         <v>1</v>
       </c>
-      <c r="W21" s="3">
-        <v>3</v>
+      <c r="W21" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>1</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Z21" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="AB21" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK21" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="3">
         <v>5</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF21" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH21" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ21" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK21" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="AL21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM21" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="3">
-        <v>5</v>
+      <c r="AP21" s="7">
+        <v>1</v>
       </c>
       <c r="AR21" s="7">
         <v>1</v>
       </c>
-      <c r="AT21" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV21" s="3">
-        <f>SUM(AP21:AU21)</f>
-        <v>3</v>
-      </c>
-      <c r="AW21" s="3">
-        <v>3</v>
-      </c>
+      <c r="AS21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="3">
+        <f>SUM(AN21:AS21)</f>
+        <v>3</v>
+      </c>
+      <c r="AU21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
       <c r="AX21" s="11"/>
-      <c r="AY21" s="11"/>
-      <c r="AZ21" s="11"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
       <c r="BC21" s="9"/>
@@ -4591,10 +4456,8 @@
       <c r="BM21" s="9"/>
       <c r="BN21" s="9"/>
       <c r="BO21" s="9"/>
-      <c r="BP21" s="9"/>
-      <c r="BQ21" s="9"/>
     </row>
-    <row r="22" spans="1:69">
+    <row r="22" spans="1:67">
       <c r="A22" s="3" t="s">
         <v>99</v>
       </c>
@@ -4661,88 +4524,84 @@
       <c r="V22" s="3">
         <v>1</v>
       </c>
-      <c r="W22" s="3">
-        <v>2</v>
+      <c r="W22" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z22" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="3">
         <v>7</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>6</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="3">
+        <f>SUM(AN22:AS22)</f>
         <v>5</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ22" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK22" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AL22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO22" s="3">
-        <v>6</v>
-      </c>
-      <c r="AP22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV22" s="3">
-        <f>SUM(AP22:AU22)</f>
-        <v>5</v>
-      </c>
-      <c r="AW22" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="11"/>
       <c r="AX22" s="11"/>
-      <c r="AY22" s="11"/>
-      <c r="AZ22" s="11"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
       <c r="BC22" s="9"/>
@@ -4758,10 +4617,8 @@
       <c r="BM22" s="9"/>
       <c r="BN22" s="9"/>
       <c r="BO22" s="9"/>
-      <c r="BP22" s="9"/>
-      <c r="BQ22" s="9"/>
     </row>
-    <row r="23" spans="1:69">
+    <row r="23" spans="1:67">
       <c r="A23" s="3" t="s">
         <v>97</v>
       </c>
@@ -4828,85 +4685,81 @@
       <c r="V23" s="3">
         <v>1</v>
       </c>
-      <c r="W23" s="3">
-        <v>3</v>
+      <c r="W23" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>1</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="Z23" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="AB23" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="3">
         <v>5</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM23" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO23" s="3">
-        <v>5</v>
-      </c>
-      <c r="AP23" s="7">
+      <c r="AN23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="7">
         <v>1</v>
       </c>
       <c r="AS23" s="7">
         <v>1</v>
       </c>
-      <c r="AT23" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU23" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV23" s="3">
-        <f>SUM(AP23:AU23)</f>
+      <c r="AT23" s="3">
+        <f>SUM(AN23:AS23)</f>
         <v>4</v>
       </c>
-      <c r="AW23" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU23" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="11"/>
       <c r="AX23" s="11"/>
-      <c r="AY23" s="11"/>
-      <c r="AZ23" s="11"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
       <c r="BC23" s="9"/>
@@ -4922,15 +4775,13 @@
       <c r="BM23" s="9"/>
       <c r="BN23" s="9"/>
       <c r="BO23" s="9"/>
-      <c r="BP23" s="9"/>
-      <c r="BQ23" s="9"/>
     </row>
-    <row r="24" spans="1:69">
+    <row r="24" spans="1:67">
       <c r="A24" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>46</v>
@@ -4993,78 +4844,74 @@
       <c r="V24" s="3">
         <v>2</v>
       </c>
-      <c r="W24" s="3">
-        <v>2</v>
+      <c r="W24" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="AC24" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="AD24" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="AE24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AF24" s="3" t="s">
+      <c r="AJ24" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="AG24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ24" s="3">
-        <v>3</v>
       </c>
       <c r="AK24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AL24" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM24" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="3">
+      <c r="AL24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="3">
         <v>6</v>
       </c>
+      <c r="AP24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="7">
+        <v>1</v>
+      </c>
       <c r="AR24" s="7">
         <v>1</v>
       </c>
-      <c r="AS24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV24" s="3">
-        <v>3</v>
-      </c>
-      <c r="AW24" s="3">
+      <c r="AT24" s="3">
+        <v>3</v>
+      </c>
+      <c r="AU24" s="3">
         <v>2</v>
       </c>
+      <c r="AV24" s="11"/>
+      <c r="AW24" s="11"/>
       <c r="AX24" s="11"/>
-      <c r="AY24" s="11"/>
-      <c r="AZ24" s="11"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
       <c r="BC24" s="9"/>
@@ -5080,10 +4927,8 @@
       <c r="BM24" s="9"/>
       <c r="BN24" s="9"/>
       <c r="BO24" s="9"/>
-      <c r="BP24" s="9"/>
-      <c r="BQ24" s="9"/>
     </row>
-    <row r="25" spans="1:69">
+    <row r="25" spans="1:67">
       <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
@@ -5150,79 +4995,75 @@
       <c r="V25" s="3">
         <v>1</v>
       </c>
-      <c r="W25" s="3">
-        <v>3</v>
+      <c r="W25" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="3">
+        <f>SUM(AN25:AS25)</f>
         <v>2</v>
       </c>
-      <c r="Y25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ25" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="AL25" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM25" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO25" s="3">
-        <v>5</v>
-      </c>
-      <c r="AP25" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU25" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV25" s="3">
-        <f>SUM(AP25:AU25)</f>
-        <v>2</v>
-      </c>
-      <c r="AW25" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU25" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="11"/>
       <c r="AX25" s="11"/>
-      <c r="AY25" s="11"/>
-      <c r="AZ25" s="11"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
       <c r="BC25" s="9"/>
@@ -5238,10 +5079,8 @@
       <c r="BM25" s="9"/>
       <c r="BN25" s="9"/>
       <c r="BO25" s="9"/>
-      <c r="BP25" s="9"/>
-      <c r="BQ25" s="9"/>
     </row>
-    <row r="26" spans="1:69">
+    <row r="26" spans="1:67">
       <c r="A26" s="3" t="s">
         <v>90</v>
       </c>
@@ -5308,88 +5147,84 @@
       <c r="V26" s="3">
         <v>1</v>
       </c>
-      <c r="W26" s="3">
-        <v>3</v>
+      <c r="W26" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z26" s="3">
         <v>5</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>1</v>
-      </c>
       <c r="AA26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB26" s="3">
         <v>7</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="3">
         <v>5</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH26" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ26" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK26" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AL26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM26" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO26" s="3">
+      <c r="AN26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="3">
+        <f>SUM(AN26:AS26)</f>
         <v>5</v>
       </c>
-      <c r="AP26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV26" s="3">
-        <f>SUM(AP26:AU26)</f>
-        <v>5</v>
-      </c>
-      <c r="AW26" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU26" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="11"/>
       <c r="AX26" s="11"/>
-      <c r="AY26" s="11"/>
-      <c r="AZ26" s="11"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
       <c r="BC26" s="9"/>
@@ -5405,10 +5240,8 @@
       <c r="BM26" s="9"/>
       <c r="BN26" s="9"/>
       <c r="BO26" s="9"/>
-      <c r="BP26" s="9"/>
-      <c r="BQ26" s="9"/>
     </row>
-    <row r="27" spans="1:69">
+    <row r="27" spans="1:67">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -5475,79 +5308,75 @@
       <c r="V27" s="3">
         <v>1</v>
       </c>
-      <c r="W27" s="3">
-        <v>1</v>
+      <c r="W27" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>1</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Z27" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AB27" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="3">
         <v>5</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ27" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK27" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AL27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM27" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR27" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS27" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV27" s="3">
-        <f>SUM(AP27:AU27)</f>
+      <c r="AP27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="3">
+        <f>SUM(AN27:AS27)</f>
         <v>2</v>
       </c>
-      <c r="AW27" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU27" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
       <c r="AX27" s="11"/>
-      <c r="AY27" s="11"/>
-      <c r="AZ27" s="11"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
       <c r="BC27" s="9"/>
@@ -5563,15 +5392,13 @@
       <c r="BM27" s="9"/>
       <c r="BN27" s="9"/>
       <c r="BO27" s="9"/>
-      <c r="BP27" s="9"/>
-      <c r="BQ27" s="9"/>
     </row>
-    <row r="28" spans="1:69">
+    <row r="28" spans="1:67">
       <c r="A28" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
@@ -5623,10 +5450,10 @@
         <v>1</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U28" s="3">
         <v>4</v>
@@ -5635,74 +5462,70 @@
         <v>2</v>
       </c>
       <c r="W28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC28" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="X28" s="3" t="s">
+      <c r="AD28" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Y28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>12</v>
-      </c>
-      <c r="AC28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>7</v>
-      </c>
       <c r="AE28" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF28" s="3" t="s">
-        <v>145</v>
+        <v>17</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>1</v>
       </c>
       <c r="AG28" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AH28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>1</v>
       </c>
       <c r="AJ28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK28" s="3">
         <v>1</v>
       </c>
-      <c r="AL28" s="3">
+      <c r="AL28" t="s">
         <v>1</v>
       </c>
       <c r="AM28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO28" s="3">
         <v>5</v>
       </c>
-      <c r="AR28" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW28" s="3">
-        <v>1</v>
-      </c>
+      <c r="AP28" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
       <c r="AX28" s="11"/>
-      <c r="AY28" s="11"/>
-      <c r="AZ28" s="11"/>
+      <c r="AY28" s="9"/>
+      <c r="AZ28" s="9"/>
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
       <c r="BC28" s="9"/>
@@ -5718,10 +5541,8 @@
       <c r="BM28" s="9"/>
       <c r="BN28" s="9"/>
       <c r="BO28" s="9"/>
-      <c r="BP28" s="9"/>
-      <c r="BQ28" s="9"/>
     </row>
-    <row r="29" spans="1:69">
+    <row r="29" spans="1:67">
       <c r="A29" s="3" t="s">
         <v>81</v>
       </c>
@@ -5788,79 +5609,75 @@
       <c r="V29" s="3">
         <v>1</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="X29" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH29" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ29" s="3">
-        <v>3</v>
-      </c>
       <c r="AK29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL29" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>1</v>
       </c>
       <c r="AM29" s="3">
         <v>9</v>
       </c>
-      <c r="AN29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO29" s="3">
-        <v>9</v>
-      </c>
-      <c r="AS29" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT29" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV29" s="3">
-        <f>SUM(AP29:AU29)</f>
+      <c r="AQ29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="3">
+        <f>SUM(AN29:AS29)</f>
         <v>2</v>
       </c>
-      <c r="AW29" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
       <c r="AX29" s="11"/>
-      <c r="AY29" s="11"/>
-      <c r="AZ29" s="11"/>
+      <c r="AY29" s="9"/>
+      <c r="AZ29" s="9"/>
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
       <c r="BC29" s="9"/>
@@ -5876,10 +5693,8 @@
       <c r="BM29" s="9"/>
       <c r="BN29" s="9"/>
       <c r="BO29" s="9"/>
-      <c r="BP29" s="9"/>
-      <c r="BQ29" s="9"/>
     </row>
-    <row r="30" spans="1:69">
+    <row r="30" spans="1:67">
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
@@ -5946,88 +5761,84 @@
       <c r="V30" s="3">
         <v>1</v>
       </c>
-      <c r="W30" s="3">
-        <v>1</v>
+      <c r="W30" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="X30" s="3">
         <v>1</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="Z30" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB30" s="3">
         <v>7</v>
       </c>
-      <c r="AB30" s="3">
+      <c r="AC30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC30" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="AD30" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="3">
+        <f>SUM(AN30:AS30)</f>
         <v>5</v>
       </c>
-      <c r="AF30" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH30" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ30" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="3">
-        <v>4</v>
-      </c>
-      <c r="AP30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV30" s="3">
-        <f>SUM(AP30:AU30)</f>
-        <v>5</v>
-      </c>
-      <c r="AW30" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU30" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
       <c r="AX30" s="11"/>
-      <c r="AY30" s="11"/>
-      <c r="AZ30" s="11"/>
+      <c r="AY30" s="9"/>
+      <c r="AZ30" s="9"/>
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
       <c r="BC30" s="9"/>
@@ -6043,15 +5854,13 @@
       <c r="BM30" s="9"/>
       <c r="BN30" s="9"/>
       <c r="BO30" s="9"/>
-      <c r="BP30" s="9"/>
-      <c r="BQ30" s="9"/>
     </row>
-    <row r="31" spans="1:69">
+    <row r="31" spans="1:67">
       <c r="A31" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -6114,75 +5923,71 @@
       <c r="V31" s="3">
         <v>1</v>
       </c>
-      <c r="W31" s="3">
-        <v>3</v>
+      <c r="W31" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="Z31" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="AC31" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="AD31" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="AE31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF31" s="3" t="s">
-        <v>145</v>
+        <v>17</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>1</v>
       </c>
       <c r="AG31" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AH31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>1</v>
       </c>
       <c r="AJ31" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="3">
         <v>1</v>
       </c>
-      <c r="AL31" s="3">
+      <c r="AL31" t="s">
         <v>1</v>
       </c>
       <c r="AM31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO31" s="3">
         <v>5</v>
       </c>
-      <c r="AP31" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT31" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV31" s="3">
+      <c r="AN31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="3">
         <v>2</v>
       </c>
-      <c r="AW31" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU31" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
       <c r="AX31" s="11"/>
-      <c r="AY31" s="11"/>
-      <c r="AZ31" s="11"/>
+      <c r="AY31" s="9"/>
+      <c r="AZ31" s="9"/>
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
       <c r="BC31" s="9"/>
@@ -6198,10 +6003,8 @@
       <c r="BM31" s="9"/>
       <c r="BN31" s="9"/>
       <c r="BO31" s="9"/>
-      <c r="BP31" s="9"/>
-      <c r="BQ31" s="9"/>
     </row>
-    <row r="32" spans="1:69">
+    <row r="32" spans="1:67">
       <c r="A32" s="3" t="s">
         <v>75</v>
       </c>
@@ -6268,76 +6071,72 @@
       <c r="V32" s="3">
         <v>1</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI32" s="3">
         <v>2</v>
       </c>
-      <c r="X32" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF32" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH32" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ32" s="3">
-        <v>3</v>
+      <c r="AJ32" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AK32" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL32" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>1</v>
       </c>
       <c r="AM32" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO32" s="3">
         <v>4</v>
       </c>
-      <c r="AR32" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV32" s="3">
-        <f t="shared" ref="AV32:AV44" si="1">SUM(AP32:AU32)</f>
-        <v>1</v>
-      </c>
-      <c r="AW32" s="3">
-        <v>3</v>
-      </c>
+      <c r="AP32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="3">
+        <f t="shared" ref="AT32:AT44" si="1">SUM(AN32:AS32)</f>
+        <v>1</v>
+      </c>
+      <c r="AU32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
       <c r="AX32" s="11"/>
-      <c r="AY32" s="11"/>
-      <c r="AZ32" s="11"/>
+      <c r="AY32" s="9"/>
+      <c r="AZ32" s="9"/>
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
       <c r="BC32" s="9"/>
@@ -6353,10 +6152,8 @@
       <c r="BM32" s="9"/>
       <c r="BN32" s="9"/>
       <c r="BO32" s="9"/>
-      <c r="BP32" s="9"/>
-      <c r="BQ32" s="9"/>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:67">
       <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
@@ -6423,79 +6220,75 @@
       <c r="V33" s="3">
         <v>1</v>
       </c>
-      <c r="W33" s="3">
-        <v>3</v>
+      <c r="W33" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z33" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AJ33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK33" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="3">
         <v>4</v>
       </c>
-      <c r="AB33" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF33" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH33" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ33" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK33" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="AL33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM33" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO33" s="3">
-        <v>4</v>
-      </c>
-      <c r="AS33" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT33" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV33" s="3">
+      <c r="AQ33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AW33" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU33" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
       <c r="AX33" s="11"/>
-      <c r="AY33" s="11"/>
-      <c r="AZ33" s="11"/>
+      <c r="AY33" s="9"/>
+      <c r="AZ33" s="9"/>
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
       <c r="BC33" s="9"/>
@@ -6503,11 +6296,9 @@
       <c r="BE33" s="9"/>
       <c r="BF33" s="9"/>
       <c r="BG33" s="9"/>
-      <c r="BH33" s="9"/>
-      <c r="BI33" s="9"/>
-      <c r="BO33" s="9"/>
+      <c r="BM33" s="9"/>
     </row>
-    <row r="34" spans="1:69">
+    <row r="34" spans="1:67">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -6574,79 +6365,75 @@
       <c r="V34" s="3">
         <v>1</v>
       </c>
-      <c r="W34" s="3">
-        <v>3</v>
+      <c r="W34" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X34" s="3">
         <v>1</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z34" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB34" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK34" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="3">
         <v>5</v>
       </c>
-      <c r="AC34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD34" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF34" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH34" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ34" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK34" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM34" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO34" s="3">
-        <v>5</v>
-      </c>
-      <c r="AP34" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS34" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV34" s="3">
+      <c r="AN34" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AW34" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU34" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
       <c r="AX34" s="11"/>
-      <c r="AY34" s="11"/>
-      <c r="AZ34" s="11"/>
+      <c r="AY34" s="9"/>
+      <c r="AZ34" s="9"/>
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
       <c r="BC34" s="9"/>
@@ -6662,10 +6449,8 @@
       <c r="BM34" s="9"/>
       <c r="BN34" s="9"/>
       <c r="BO34" s="9"/>
-      <c r="BP34" s="9"/>
-      <c r="BQ34" s="9"/>
     </row>
-    <row r="35" spans="1:69">
+    <row r="35" spans="1:67">
       <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
@@ -6732,85 +6517,81 @@
       <c r="V35" s="3">
         <v>1</v>
       </c>
-      <c r="W35" s="3">
-        <v>3</v>
+      <c r="W35" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X35" s="3">
         <v>1</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Z35" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB35" s="3">
         <v>7</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK35" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="3">
         <v>5</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF35" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH35" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ35" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK35" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM35" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO35" s="3">
-        <v>5</v>
+      <c r="AN35" s="7">
+        <v>1</v>
       </c>
       <c r="AP35" s="7">
         <v>1</v>
       </c>
+      <c r="AQ35" s="7">
+        <v>1</v>
+      </c>
       <c r="AR35" s="7">
         <v>1</v>
       </c>
-      <c r="AS35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV35" s="3">
+      <c r="AT35" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AW35" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU35" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV35" s="11"/>
+      <c r="AW35" s="11"/>
       <c r="AX35" s="11"/>
-      <c r="AY35" s="11"/>
-      <c r="AZ35" s="11"/>
+      <c r="AY35" s="9"/>
+      <c r="AZ35" s="9"/>
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
       <c r="BC35" s="9"/>
@@ -6826,10 +6607,8 @@
       <c r="BM35" s="9"/>
       <c r="BN35" s="9"/>
       <c r="BO35" s="9"/>
-      <c r="BP35" s="9"/>
-      <c r="BQ35" s="9"/>
     </row>
-    <row r="36" spans="1:69">
+    <row r="36" spans="1:67">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
@@ -6896,82 +6675,78 @@
       <c r="V36" s="3">
         <v>1</v>
       </c>
-      <c r="W36" s="3">
-        <v>3</v>
+      <c r="W36" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X36" s="3">
         <v>1</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="Z36" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="AB36" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="3">
         <v>5</v>
       </c>
-      <c r="AC36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD36" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF36" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH36" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ36" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK36" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM36" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO36" s="3">
-        <v>5</v>
-      </c>
-      <c r="AP36" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS36" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT36" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV36" s="3">
+      <c r="AN36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AW36" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU36" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
       <c r="AX36" s="11"/>
-      <c r="AY36" s="11"/>
-      <c r="AZ36" s="11"/>
+      <c r="AY36" s="9"/>
+      <c r="AZ36" s="9"/>
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
       <c r="BC36" s="9"/>
@@ -6987,10 +6762,8 @@
       <c r="BM36" s="9"/>
       <c r="BN36" s="9"/>
       <c r="BO36" s="9"/>
-      <c r="BP36" s="9"/>
-      <c r="BQ36" s="9"/>
     </row>
-    <row r="37" spans="1:69">
+    <row r="37" spans="1:67">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
@@ -7057,79 +6830,75 @@
       <c r="V37" s="3">
         <v>1</v>
       </c>
-      <c r="W37" s="3">
-        <v>3</v>
+      <c r="W37" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X37" s="3">
         <v>1</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="Z37" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA37" s="3" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="AB37" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK37" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM37" s="3">
         <v>5</v>
       </c>
-      <c r="AC37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD37" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF37" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH37" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ37" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK37" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM37" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO37" s="3">
-        <v>5</v>
-      </c>
-      <c r="AQ37" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR37" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV37" s="3">
+      <c r="AO37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AW37" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU37" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV37" s="11"/>
+      <c r="AW37" s="11"/>
       <c r="AX37" s="11"/>
-      <c r="AY37" s="11"/>
-      <c r="AZ37" s="11"/>
+      <c r="AY37" s="9"/>
+      <c r="AZ37" s="9"/>
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
       <c r="BC37" s="9"/>
@@ -7145,10 +6914,8 @@
       <c r="BM37" s="9"/>
       <c r="BN37" s="9"/>
       <c r="BO37" s="9"/>
-      <c r="BP37" s="9"/>
-      <c r="BQ37" s="9"/>
     </row>
-    <row r="38" spans="1:69">
+    <row r="38" spans="1:67">
       <c r="A38" s="3" t="s">
         <v>55</v>
       </c>
@@ -7215,79 +6982,75 @@
       <c r="V38" s="3">
         <v>1</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X38" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>13</v>
+      </c>
+      <c r="AE38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI38" s="3">
         <v>2</v>
       </c>
-      <c r="X38" s="3">
+      <c r="AJ38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK38" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM38" s="3">
         <v>4</v>
       </c>
-      <c r="Y38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB38" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD38" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF38" s="3">
-        <v>13</v>
-      </c>
-      <c r="AG38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH38" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ38" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK38" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM38" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO38" s="3">
-        <v>4</v>
-      </c>
-      <c r="AP38" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS38" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV38" s="3">
+      <c r="AN38" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AW38" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU38" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="11"/>
       <c r="AX38" s="11"/>
-      <c r="AY38" s="11"/>
-      <c r="AZ38" s="11"/>
+      <c r="AY38" s="9"/>
+      <c r="AZ38" s="9"/>
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
       <c r="BC38" s="9"/>
@@ -7303,10 +7066,8 @@
       <c r="BM38" s="9"/>
       <c r="BN38" s="9"/>
       <c r="BO38" s="9"/>
-      <c r="BP38" s="9"/>
-      <c r="BQ38" s="9"/>
     </row>
-    <row r="39" spans="1:69">
+    <row r="39" spans="1:67">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
@@ -7374,87 +7135,83 @@
         <v>1</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="X39" s="3" t="s">
-        <v>145</v>
+        <v>0</v>
+      </c>
+      <c r="X39" s="3">
+        <v>1</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z39" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB39" s="3">
         <v>7</v>
       </c>
-      <c r="AB39" s="3">
+      <c r="AC39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK39" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="3">
         <v>5</v>
       </c>
-      <c r="AC39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD39" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF39" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH39" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI39" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ39" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK39" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM39" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO39" s="3">
-        <v>5</v>
+      <c r="AN39" s="7">
+        <v>1</v>
       </c>
       <c r="AP39" s="7">
         <v>1</v>
       </c>
+      <c r="AQ39" s="7">
+        <v>1</v>
+      </c>
       <c r="AR39" s="7">
         <v>1</v>
       </c>
       <c r="AS39" s="7">
         <v>1</v>
       </c>
-      <c r="AT39" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU39" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV39" s="3">
+      <c r="AT39" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AW39" s="3">
-        <v>3</v>
-      </c>
+      <c r="AU39" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
       <c r="AX39" s="11"/>
-      <c r="AY39" s="11"/>
-      <c r="AZ39" s="11"/>
+      <c r="AY39" s="9"/>
+      <c r="AZ39" s="9"/>
       <c r="BA39" s="9"/>
       <c r="BB39" s="9"/>
       <c r="BC39" s="9"/>
@@ -7462,11 +7219,9 @@
       <c r="BE39" s="9"/>
       <c r="BF39" s="9"/>
       <c r="BG39" s="9"/>
-      <c r="BH39" s="9"/>
-      <c r="BI39" s="9"/>
-      <c r="BO39" s="9"/>
+      <c r="BM39" s="9"/>
     </row>
-    <row r="40" spans="1:69">
+    <row r="40" spans="1:67">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -7533,81 +7288,75 @@
       <c r="V40" s="3">
         <v>1</v>
       </c>
-      <c r="W40" s="3">
-        <v>3</v>
+      <c r="W40" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X40" s="3">
         <v>4</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z40" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF40" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK40" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="3">
         <v>4</v>
       </c>
-      <c r="AA40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD40" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF40" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH40" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ40" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK40" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM40" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO40" s="3">
-        <v>4</v>
+      <c r="AP40" s="7">
+        <v>1</v>
       </c>
       <c r="AR40" s="7">
         <v>1</v>
       </c>
-      <c r="AT40" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU40" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV40" s="3">
+      <c r="AS40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AW40" s="3">
+      <c r="AU40" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:69">
+    <row r="41" spans="1:67">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -7674,78 +7423,72 @@
       <c r="V41" s="3">
         <v>1</v>
       </c>
-      <c r="W41" s="3">
-        <v>3</v>
+      <c r="W41" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>1</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z41" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB41" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="AJ41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="3">
         <v>5</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD41" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF41" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH41" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ41" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK41" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="AL41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM41" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO41" s="3">
-        <v>5</v>
-      </c>
-      <c r="AT41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV41" s="3">
+      <c r="AR41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT41" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AW41" s="3">
+      <c r="AU41" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:69">
+    <row r="42" spans="1:67">
       <c r="A42" s="3" t="s">
         <v>25</v>
       </c>
@@ -7812,75 +7555,69 @@
       <c r="V42" s="3">
         <v>1</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X42" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="X42" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB42" s="3">
+      <c r="AK42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="3">
         <v>5</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD42" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF42" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH42" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ42" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK42" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM42" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO42" s="3">
-        <v>5</v>
-      </c>
-      <c r="AR42" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV42" s="3">
+      <c r="AP42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AW42" s="3">
+      <c r="AU42" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:69">
+    <row r="43" spans="1:67">
       <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
@@ -7947,87 +7684,81 @@
       <c r="V43" s="3">
         <v>1</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="X43" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AK43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="3">
         <v>5</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD43" s="3">
-        <v>7</v>
-      </c>
-      <c r="AE43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF43" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH43" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ43" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO43" s="3">
-        <v>5</v>
+      <c r="AN43" s="7">
+        <v>1</v>
       </c>
       <c r="AP43" s="7">
         <v>1</v>
       </c>
+      <c r="AQ43" s="7">
+        <v>1</v>
+      </c>
       <c r="AR43" s="7">
         <v>1</v>
       </c>
       <c r="AS43" s="7">
         <v>1</v>
       </c>
-      <c r="AT43" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU43" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV43" s="3">
+      <c r="AT43" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AW43" s="3">
+      <c r="AU43" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:69">
+    <row r="44" spans="1:67">
       <c r="A44" s="3" t="s">
         <v>15</v>
       </c>
@@ -8077,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R44" s="3">
         <v>6</v>
@@ -8094,83 +7825,77 @@
       <c r="V44" s="3">
         <v>1</v>
       </c>
-      <c r="W44" s="3">
-        <v>3</v>
+      <c r="W44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X44" s="3">
         <v>1</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Z44" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB44" s="3">
         <v>7</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="AD44" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="3">
         <v>5</v>
       </c>
-      <c r="AF44" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH44" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ44" s="3">
-        <v>3</v>
-      </c>
-      <c r="AK44" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM44" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO44" s="3">
-        <v>5</v>
+      <c r="AN44" s="7">
+        <v>1</v>
       </c>
       <c r="AP44" s="7">
         <v>1</v>
       </c>
+      <c r="AQ44" s="7">
+        <v>1</v>
+      </c>
       <c r="AR44" s="7">
         <v>1</v>
       </c>
       <c r="AS44" s="7">
         <v>1</v>
       </c>
-      <c r="AT44" s="7">
-        <v>1</v>
-      </c>
-      <c r="AU44" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV44" s="3">
+      <c r="AT44" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AW44" s="3">
+      <c r="AU44" s="3">
         <v>3</v>
       </c>
     </row>
@@ -8222,10 +7947,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8233,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8241,7 +7966,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8249,7 +7974,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8257,7 +7982,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8265,7 +7990,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8273,7 +7998,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8281,7 +8006,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8289,7 +8014,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8297,7 +8022,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8305,7 +8030,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8313,7 +8038,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8321,7 +8046,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8329,7 +8054,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -8339,10 +8064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8353,154 +8078,146 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" t="s">
-        <v>231</v>
+        <v>152</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>234</v>
+        <v>225</v>
+      </c>
+      <c r="B17" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trait_data_and_sources.xlsx
+++ b/Data/Trait_data_and_sources.xlsx
@@ -622,9 +622,6 @@
     <t>Distribution status - Source</t>
   </si>
   <si>
-    <t>Breeding habit (lentic/lotic)</t>
-  </si>
-  <si>
     <t>Larval body length - Min (mm)</t>
   </si>
   <si>
@@ -697,9 +694,6 @@
     <t>Species classified using the Red List criteria</t>
   </si>
   <si>
-    <t>Breeding habit</t>
-  </si>
-  <si>
     <t>Habitat data</t>
   </si>
   <si>
@@ -715,12 +709,6 @@
     <t>Range between the minimum and maximum numbers of years taken to complete the larval stage in the UK, where this is not a single value</t>
   </si>
   <si>
-    <t xml:space="preserve">Breeding habit - Source </t>
-  </si>
-  <si>
-    <t>Species are classified into two groups based on their preferred breeding habit, either lentic or lotic.</t>
-  </si>
-  <si>
     <t>A series of habitat types, species are given a 1 if they utilise the habitat in question.</t>
   </si>
   <si>
@@ -776,6 +764,18 @@
   </si>
   <si>
     <t>A variable describing a species emergence strategy: 1) Spring emergence = highly synchronised, 2) Summer emergence = temporally dispersed  emergence, 3) Type 3 Summer = Obligatorily univoltine species.</t>
+  </si>
+  <si>
+    <t>Breeding habitat (lentic/lotic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breeding habitat - Source </t>
+  </si>
+  <si>
+    <t>Breeding habitat</t>
+  </si>
+  <si>
+    <t>Species are classified into two groups based on their preferred breeding habitat, either lentic or lotic.</t>
   </si>
 </sst>
 </file>
@@ -1198,8 +1198,8 @@
   <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V5" sqref="V5"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1284,7 +1284,7 @@
         <v>190</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>149</v>
@@ -1296,7 +1296,7 @@
         <v>172</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>164</v>
@@ -1305,10 +1305,10 @@
         <v>179</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>173</v>
@@ -1362,10 +1362,10 @@
         <v>195</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>160</v>
@@ -1386,7 +1386,7 @@
         <v>155</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AU1" s="6" t="s">
         <v>187</v>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="2" spans="1:67">
       <c r="A2" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Z2" s="3">
         <v>5</v>
@@ -1597,7 +1597,7 @@
         <v>178</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>9</v>
@@ -4001,10 +4001,10 @@
     </row>
     <row r="19" spans="1:67">
       <c r="A19" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>46</v>
@@ -4778,10 +4778,10 @@
     </row>
     <row r="24" spans="1:67">
       <c r="A24" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>46</v>
@@ -5395,10 +5395,10 @@
     </row>
     <row r="28" spans="1:67">
       <c r="A28" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
@@ -5450,10 +5450,10 @@
         <v>1</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="U28" s="3">
         <v>4</v>
@@ -5857,10 +5857,10 @@
     </row>
     <row r="31" spans="1:67">
       <c r="A31" s="13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -7947,10 +7947,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7958,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7966,7 +7966,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8046,7 +8046,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8054,7 +8054,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -8066,8 +8066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8078,34 +8078,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
         <v>213</v>
-      </c>
-      <c r="B3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8113,7 +8113,7 @@
         <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8121,15 +8121,15 @@
         <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" t="s">
         <v>219</v>
-      </c>
-      <c r="B7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8137,7 +8137,7 @@
         <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8145,7 +8145,7 @@
         <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8153,7 +8153,7 @@
         <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8161,7 +8161,7 @@
         <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8169,7 +8169,7 @@
         <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8177,7 +8177,7 @@
         <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8185,7 +8185,7 @@
         <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8193,31 +8193,31 @@
         <v>152</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>231</v>
+        <v>249</v>
+      </c>
+      <c r="B16" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trait_data_and_sources.xlsx
+++ b/Data/Trait_data_and_sources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="20955" windowHeight="9465" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="20955" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="251">
   <si>
     <t>N</t>
   </si>
@@ -797,18 +797,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -823,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -858,9 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,9 +1188,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BP44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM11" sqref="AM11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1470,7 +1461,7 @@
         <v>243</v>
       </c>
       <c r="Z2" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>6</v>
@@ -1505,7 +1496,7 @@
       <c r="AK2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AL2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AM2" s="3">
@@ -1518,6 +1509,7 @@
         <v>1</v>
       </c>
       <c r="AT2" s="3">
+        <f>SUM(AN2:AS2)</f>
         <v>2</v>
       </c>
       <c r="AU2" s="3">
@@ -1621,7 +1613,7 @@
         <v>29</v>
       </c>
       <c r="Z3" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>28</v>
@@ -1669,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="AT3" s="3">
-        <f t="shared" ref="AT3:AT18" si="0">SUM(AN3:AS3)</f>
+        <f t="shared" ref="AT3:AT44" si="0">SUM(AN3:AS3)</f>
         <v>2</v>
       </c>
       <c r="AU3" s="3">
@@ -1740,7 +1732,7 @@
         <v>11</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -1773,7 +1765,7 @@
         <v>7</v>
       </c>
       <c r="Z4" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>6</v>
@@ -1928,7 +1920,7 @@
         <v>7</v>
       </c>
       <c r="Z5" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>6</v>
@@ -2089,7 +2081,7 @@
         <v>112</v>
       </c>
       <c r="Z6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>73</v>
@@ -2214,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="R7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>125</v>
@@ -2241,7 +2233,7 @@
         <v>4</v>
       </c>
       <c r="Z7" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>6</v>
@@ -2396,7 +2388,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>6</v>
@@ -2554,7 +2546,7 @@
         <v>4</v>
       </c>
       <c r="Z9" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>6</v>
@@ -2682,13 +2674,13 @@
         <v>11</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P10" s="1">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="R10" s="3">
         <v>3</v>
@@ -2715,7 +2707,7 @@
         <v>57</v>
       </c>
       <c r="Z10" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>6</v>
@@ -2873,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="Z11" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>6</v>
@@ -3022,7 +3014,7 @@
         <v>4</v>
       </c>
       <c r="Z12" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>6</v>
@@ -3171,7 +3163,7 @@
         <v>51</v>
       </c>
       <c r="Z13" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="3" t="s">
         <v>6</v>
@@ -3320,7 +3312,7 @@
         <v>112</v>
       </c>
       <c r="Z14" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>73</v>
@@ -3456,7 +3448,7 @@
         <v>29</v>
       </c>
       <c r="Z15" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>145</v>
@@ -3611,7 +3603,7 @@
         <v>29</v>
       </c>
       <c r="Z16" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>73</v>
@@ -3730,12 +3722,12 @@
         <v>10</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P17" s="1">
         <v>3</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R17" s="3">
@@ -3763,7 +3755,7 @@
         <v>7</v>
       </c>
       <c r="Z17" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="3" t="s">
         <v>6</v>
@@ -3893,7 +3885,7 @@
       <c r="P18" s="1">
         <v>1</v>
       </c>
-      <c r="Q18" s="14" t="s">
+      <c r="Q18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R18" s="3">
@@ -3921,7 +3913,7 @@
         <v>57</v>
       </c>
       <c r="Z18" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>37</v>
@@ -4049,7 +4041,7 @@
       <c r="P19" s="4">
         <v>1</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="7" t="s">
         <v>145</v>
       </c>
       <c r="R19" s="3" t="s">
@@ -4077,7 +4069,7 @@
         <v>112</v>
       </c>
       <c r="Z19" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="3" t="s">
         <v>145</v>
@@ -4115,9 +4107,6 @@
       <c r="AM19" s="3">
         <v>9</v>
       </c>
-      <c r="AO19" s="7">
-        <v>1</v>
-      </c>
       <c r="AQ19" s="7">
         <v>1</v>
       </c>
@@ -4125,7 +4114,8 @@
         <v>1</v>
       </c>
       <c r="AT19" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AU19" s="3">
         <v>3</v>
@@ -4200,7 +4190,7 @@
       <c r="P20" s="1">
         <v>1</v>
       </c>
-      <c r="Q20" s="14" t="s">
+      <c r="Q20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R20" s="3">
@@ -4228,7 +4218,7 @@
         <v>4</v>
       </c>
       <c r="Z20" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>6</v>
@@ -4276,6 +4266,7 @@
         <v>1</v>
       </c>
       <c r="AT20" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AU20" s="3">
@@ -4351,7 +4342,7 @@
       <c r="P21" s="1">
         <v>1</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R21" s="3">
@@ -4379,7 +4370,7 @@
         <v>51</v>
       </c>
       <c r="Z21" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>6</v>
@@ -4430,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="AT21" s="3">
-        <f>SUM(AN21:AS21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AU21" s="3">
@@ -4506,7 +4497,7 @@
       <c r="P22" s="1">
         <v>1</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="Q22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R22" s="3">
@@ -4534,7 +4525,7 @@
         <v>7</v>
       </c>
       <c r="Z22" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>6</v>
@@ -4591,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="AT22" s="3">
-        <f>SUM(AN22:AS22)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AU22" s="3">
@@ -4667,7 +4658,7 @@
       <c r="P23" s="1">
         <v>1</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R23" s="3">
@@ -4695,7 +4686,7 @@
         <v>57</v>
       </c>
       <c r="Z23" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="3" t="s">
         <v>6</v>
@@ -4749,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="AT23" s="3">
-        <f>SUM(AN23:AS23)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AU23" s="3">
@@ -4821,12 +4812,12 @@
         <v>145</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P24" s="3">
         <v>2</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="7" t="s">
         <v>145</v>
       </c>
       <c r="R24" s="3" t="s">
@@ -4851,10 +4842,10 @@
         <v>1</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>145</v>
+        <v>57</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>145</v>
@@ -4892,9 +4883,6 @@
       <c r="AM24" s="3">
         <v>6</v>
       </c>
-      <c r="AP24" s="7">
-        <v>1</v>
-      </c>
       <c r="AQ24" s="7">
         <v>1</v>
       </c>
@@ -4902,7 +4890,8 @@
         <v>1</v>
       </c>
       <c r="AT24" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AU24" s="3">
         <v>2</v>
@@ -4977,7 +4966,7 @@
       <c r="P25" s="1">
         <v>1</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R25" s="3">
@@ -5005,7 +4994,7 @@
         <v>29</v>
       </c>
       <c r="Z25" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="3" t="s">
         <v>37</v>
@@ -5053,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="AT25" s="3">
-        <f>SUM(AN25:AS25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AU25" s="3">
@@ -5124,12 +5113,12 @@
         <v>8</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P26" s="1">
         <v>5</v>
       </c>
-      <c r="Q26" s="14" t="s">
+      <c r="Q26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R26" s="3">
@@ -5157,7 +5146,7 @@
         <v>7</v>
       </c>
       <c r="Z26" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>6</v>
@@ -5214,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="AT26" s="3">
-        <f>SUM(AN26:AS26)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AU26" s="3">
@@ -5290,7 +5279,7 @@
       <c r="P27" s="1">
         <v>1</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R27" s="3">
@@ -5318,7 +5307,7 @@
         <v>51</v>
       </c>
       <c r="Z27" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>37</v>
@@ -5366,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="AT27" s="3">
-        <f>SUM(AN27:AS27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AU27" s="3">
@@ -5443,7 +5432,7 @@
       <c r="P28" s="4">
         <v>1</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="Q28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="R28" s="3">
@@ -5471,7 +5460,7 @@
         <v>112</v>
       </c>
       <c r="Z28" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>6</v>
@@ -5480,10 +5469,10 @@
         <v>7</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD28" s="3" t="s">
-        <v>145</v>
+        <v>5</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>13</v>
       </c>
       <c r="AE28" s="3" t="s">
         <v>17</v>
@@ -5515,8 +5504,12 @@
       <c r="AP28" s="7">
         <v>1</v>
       </c>
+      <c r="AQ28" s="7">
+        <v>1</v>
+      </c>
       <c r="AT28" s="3">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AU28" s="3">
         <v>1</v>
@@ -5619,7 +5612,7 @@
         <v>29</v>
       </c>
       <c r="Z29" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>37</v>
@@ -5667,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="AT29" s="3">
-        <f>SUM(AN29:AS29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AU29" s="3">
@@ -5771,7 +5764,7 @@
         <v>7</v>
       </c>
       <c r="Z30" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>6</v>
@@ -5828,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="AT30" s="3">
-        <f>SUM(AN30:AS30)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AU30" s="3">
@@ -5933,16 +5926,16 @@
         <v>112</v>
       </c>
       <c r="Z31" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="3" t="s">
         <v>145</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD31" s="3" t="s">
-        <v>145</v>
+        <v>5</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>13</v>
       </c>
       <c r="AE31" s="3" t="s">
         <v>17</v>
@@ -5974,11 +5967,15 @@
       <c r="AN31" s="7">
         <v>1</v>
       </c>
+      <c r="AQ31" s="7">
+        <v>1</v>
+      </c>
       <c r="AR31" s="7">
         <v>1</v>
       </c>
       <c r="AT31" s="3">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AU31" s="3">
         <v>3</v>
@@ -6081,7 +6078,7 @@
         <v>29</v>
       </c>
       <c r="Z32" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>73</v>
@@ -6126,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="AT32" s="3">
-        <f t="shared" ref="AT32:AT44" si="1">SUM(AN32:AS32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AU32" s="3">
@@ -6227,10 +6224,10 @@
         <v>1</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="Z33" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="3" t="s">
         <v>6</v>
@@ -6278,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="AT33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AU33" s="3">
@@ -6375,7 +6372,7 @@
         <v>29</v>
       </c>
       <c r="Z34" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>37</v>
@@ -6423,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="AT34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AU34" s="3">
@@ -6527,7 +6524,7 @@
         <v>7</v>
       </c>
       <c r="Z35" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA35" s="3" t="s">
         <v>6</v>
@@ -6581,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="AT35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AU35" s="3">
@@ -6685,7 +6682,7 @@
         <v>57</v>
       </c>
       <c r="Z36" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>6</v>
@@ -6736,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="AT36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AU36" s="3">
@@ -6840,7 +6837,7 @@
         <v>57</v>
       </c>
       <c r="Z37" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA37" s="3" t="s">
         <v>6</v>
@@ -6888,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="AT37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AU37" s="3">
@@ -6992,7 +6989,7 @@
         <v>51</v>
       </c>
       <c r="Z38" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>6</v>
@@ -7040,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="AT38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AU38" s="3">
@@ -7144,7 +7141,7 @@
         <v>7</v>
       </c>
       <c r="Z39" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA39" s="3" t="s">
         <v>6</v>
@@ -7201,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="AT39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AU39" s="3">
@@ -7298,7 +7295,7 @@
         <v>29</v>
       </c>
       <c r="Z40" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA40" s="3" t="s">
         <v>37</v>
@@ -7349,7 +7346,7 @@
         <v>1</v>
       </c>
       <c r="AT40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AU40" s="3">
@@ -7433,7 +7430,7 @@
         <v>29</v>
       </c>
       <c r="Z41" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>28</v>
@@ -7481,7 +7478,7 @@
         <v>1</v>
       </c>
       <c r="AT41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AU41" s="3">
@@ -7565,7 +7562,7 @@
         <v>4</v>
       </c>
       <c r="Z42" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>6</v>
@@ -7610,7 +7607,7 @@
         <v>1</v>
       </c>
       <c r="AT42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AU42" s="3">
@@ -7694,7 +7691,7 @@
         <v>4</v>
       </c>
       <c r="Z43" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>6</v>
@@ -7751,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="AT43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AU43" s="3">
@@ -7835,7 +7832,7 @@
         <v>7</v>
       </c>
       <c r="Z44" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>6</v>
@@ -7892,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="AT44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AU44" s="3">
@@ -8066,8 +8063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/Trait_data_and_sources.xlsx
+++ b/Data/Trait_data_and_sources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="20955" windowHeight="9465"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="20955" windowHeight="9465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -691,9 +691,6 @@
     <t>Categorical variable that groups species based on distribution size: very widespread, widespread, local, scarce, rare, very rare.</t>
   </si>
   <si>
-    <t>Species classified using the Red List criteria</t>
-  </si>
-  <si>
     <t>Habitat data</t>
   </si>
   <si>
@@ -776,6 +773,9 @@
   </si>
   <si>
     <t>Species are classified into two groups based on their preferred breeding habitat, either lentic or lotic.</t>
+  </si>
+  <si>
+    <t>Species classified using the national Red List criteria</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BP44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P24" sqref="P24"/>
     </sheetView>
@@ -1353,10 +1353,10 @@
         <v>195</v>
       </c>
       <c r="AL1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>160</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="2" spans="1:67">
       <c r="A2" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Z2" s="3">
         <v>1</v>
@@ -3993,10 +3993,10 @@
     </row>
     <row r="19" spans="1:67">
       <c r="A19" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>46</v>
@@ -4769,10 +4769,10 @@
     </row>
     <row r="24" spans="1:67">
       <c r="A24" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>46</v>
@@ -5384,10 +5384,10 @@
     </row>
     <row r="28" spans="1:67">
       <c r="A28" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
@@ -5439,10 +5439,10 @@
         <v>1</v>
       </c>
       <c r="S28" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="T28" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="U28" s="3">
         <v>4</v>
@@ -5850,10 +5850,10 @@
     </row>
     <row r="31" spans="1:67">
       <c r="A31" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -8043,7 +8043,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8051,7 +8051,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -8063,8 +8063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8102,7 +8102,7 @@
         <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8150,7 +8150,7 @@
         <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8158,7 +8158,7 @@
         <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8166,7 +8166,7 @@
         <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8174,7 +8174,7 @@
         <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8182,7 +8182,7 @@
         <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8190,23 +8190,23 @@
         <v>152</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" t="s">
         <v>249</v>
-      </c>
-      <c r="B16" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8214,7 +8214,7 @@
         <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Trait_data_and_sources.xlsx
+++ b/Data/Trait_data_and_sources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="20955" windowHeight="9465" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="20955" windowHeight="9465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$V$39</definedName>
     <definedName name="Sex">[1]Lookups!$A$53:$A$56</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -553,30 +553,18 @@
     <t>Body size - Source</t>
   </si>
   <si>
-    <t>Corbet, S. &amp; Brooks, S. (2008) Dragonflies</t>
-  </si>
-  <si>
-    <t>Powell, D. (1999) A guide to the dragonflies of Great Britain.  Arlequin Press, Essex.</t>
-  </si>
-  <si>
     <t>EL</t>
   </si>
   <si>
     <t>Overwintering stage - Source</t>
   </si>
   <si>
-    <t>Smallshire, D. and Swash, A. 2010 Britain's Dragonflies: A field guide to the damselflies and dragonflies of Britain and Ireland WILDGuides, Old Basing, Hampshire, UK</t>
-  </si>
-  <si>
     <t>Flight period - Source</t>
   </si>
   <si>
     <t>Migratory - Source</t>
   </si>
   <si>
-    <t>Hammond, C. O. (1983) The dragonflies of Great Britain and Ireland.  Harley Books, Essex.</t>
-  </si>
-  <si>
     <t>Red list - Source</t>
   </si>
   <si>
@@ -592,30 +580,18 @@
     <t>Oviposition - Source</t>
   </si>
   <si>
-    <t>Daguet, C.A., French, G.C. and Taylor, P. (2008). The Odonata Red Data List for Great Britain. Species Status 11; 1-34. Joint Nature Conservation Committee, Peterborough</t>
-  </si>
-  <si>
     <t>Body length - Source</t>
   </si>
   <si>
     <t>Larval body length - Source</t>
   </si>
   <si>
-    <t>Dijkstra, K-D.B. and Lewington, R. 2006 Field Guide to the Dragonflies of Britain and Europe British Wildlife Publishing, Gillingham, Dorset, UK</t>
-  </si>
-  <si>
     <t>Shirt, D.P. (ed.) 1987 British Red Data Books 2: Insects Nature Conservancy Council</t>
   </si>
   <si>
-    <t>Cham, S. 2009 Field Guide to the larvae and exuviae of British Dragonflies Volume 2: Zygoptera British Dragonfly Society, Peterborough, UK</t>
-  </si>
-  <si>
     <t>Life cycle - Source</t>
   </si>
   <si>
-    <t>Cham, S. 2007 Field Guide to the larvae and exuviae of British Dragonflies Volume 1: Anisoptera British Dragonfly Society, Peterborough, UK</t>
-  </si>
-  <si>
     <t>Distribution status</t>
   </si>
   <si>
@@ -637,9 +613,6 @@
     <t>Habitat breadth</t>
   </si>
   <si>
-    <t xml:space="preserve">Brooks, S. &amp; Lewington, R. (2007) Field Guide to the Dragonflies and Damselflies of Great Britain and Ireland. Revised Edition. British Wildlife Publishing. Dorset, UK. </t>
-  </si>
-  <si>
     <t>d'Aguilar, J., Dommanget, J. L. &amp; Préchac, R. (1986) A field guide to the dragonflies of Britain, Europe and North Africa.  Collins. London, UK</t>
   </si>
   <si>
@@ -754,12 +727,6 @@
     <t>Vagrant</t>
   </si>
   <si>
-    <t>Merritt, R., Moore, N. W. &amp; Eversham, B. C. (1996) Atlas of the dragonflies of Britain and Ireland. HMSO Great Britain.</t>
-  </si>
-  <si>
-    <t>Brooks, S. (2013) Pers. Comm.</t>
-  </si>
-  <si>
     <t>A variable describing a species emergence strategy: 1) Spring emergence = highly synchronised, 2) Summer emergence = temporally dispersed  emergence, 3) Type 3 Summer = Obligatorily univoltine species.</t>
   </si>
   <si>
@@ -776,6 +743,39 @@
   </si>
   <si>
     <t>Species classified using the national Red List criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brooks, S.J. &amp; Lewington, R. (2007) Field Guide to the Dragonflies and Damselflies of Great Britain and Ireland. Revised Edition. British Wildlife Publishing. Dorset, UK. </t>
+  </si>
+  <si>
+    <t>Brooks, S.J. (2013) Pers. Comm.</t>
+  </si>
+  <si>
+    <t>Corbet, P.S. &amp; Brooks, S.J. (2008) Dragonflies. Collins, London, UK</t>
+  </si>
+  <si>
+    <t>Hammond, C.O. (1983) The dragonflies of Great Britain and Ireland.  Harley Books, Essex. UK</t>
+  </si>
+  <si>
+    <t>Powell, D. (1999) A guide to the dragonflies of Great Britain.  Arlequin Press, Essex. UK</t>
+  </si>
+  <si>
+    <t>Daguet, C.A., French, G.C. and Taylor, P. (2008). The Odonata Red Data List for Great Britain. Species Status 11; 1-34. Joint Nature Conservation Committee, Peterborough, UK</t>
+  </si>
+  <si>
+    <t>Smallshire, D. and Swash, A. (2010) Britain's Dragonflies: A field guide to the damselflies and dragonflies of Britain and Ireland WILDGuides, Old Basing, Hampshire, UK</t>
+  </si>
+  <si>
+    <t>Dijkstra, K-D.B. and Lewington, R. (2006) Field Guide to the Dragonflies of Britain and Europe British Wildlife Publishing, Gillingham, Dorset, UK</t>
+  </si>
+  <si>
+    <t>Cham, S. (2009) Field Guide to the larvae and exuviae of British Dragonflies Volume 2: Zygoptera British Dragonfly Society, Peterborough, UK</t>
+  </si>
+  <si>
+    <t>Cham, S. (2007) Field Guide to the larvae and exuviae of British Dragonflies Volume 1: Anisoptera British Dragonfly Society, Peterborough, UK</t>
+  </si>
+  <si>
+    <t>Merritt, R., Moore, N.W. &amp; Eversham, B.C. (1996) Atlas of the dragonflies of Britain and Ireland. HMSO Great Britain.</t>
   </si>
 </sst>
 </file>
@@ -1272,76 +1272,76 @@
         <v>150</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>172</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>164</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>173</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>174</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>163</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>162</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>161</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AG1" s="3" t="s">
         <v>154</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AI1" s="3" t="s">
         <v>153</v>
@@ -1350,13 +1350,13 @@
         <v>152</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>160</v>
@@ -1377,18 +1377,18 @@
         <v>155</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:67">
       <c r="A2" s="3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="Z2" s="3">
         <v>1</v>
@@ -1586,10 +1586,10 @@
         <v>1</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>9</v>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R4" s="3">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R5" s="3">
         <v>1</v>
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R6" s="3">
         <v>3</v>
@@ -3993,10 +3993,10 @@
     </row>
     <row r="19" spans="1:67">
       <c r="A19" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>46</v>
@@ -4769,10 +4769,10 @@
     </row>
     <row r="24" spans="1:67">
       <c r="A24" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>46</v>
@@ -5384,10 +5384,10 @@
     </row>
     <row r="28" spans="1:67">
       <c r="A28" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>46</v>
@@ -5439,10 +5439,10 @@
         <v>1</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="U28" s="3">
         <v>4</v>
@@ -5850,10 +5850,10 @@
     </row>
     <row r="31" spans="1:67">
       <c r="A31" s="13" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R44" s="3">
         <v>6</v>
@@ -7933,8 +7933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7944,10 +7944,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7955,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7963,7 +7963,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7971,7 +7971,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7979,7 +7979,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7987,7 +7987,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7995,7 +7995,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8003,7 +8003,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8011,7 +8011,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8019,7 +8019,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8027,7 +8027,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8035,7 +8035,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8043,7 +8043,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8051,7 +8051,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -8075,34 +8075,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8110,7 +8110,7 @@
         <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8118,15 +8118,15 @@
         <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8134,15 +8134,15 @@
         <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8150,7 +8150,7 @@
         <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8158,7 +8158,7 @@
         <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8166,7 +8166,7 @@
         <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8174,7 +8174,7 @@
         <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8182,7 +8182,7 @@
         <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8190,31 +8190,31 @@
         <v>152</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
